--- a/dados/previsoes/todas_previsoes.xlsx
+++ b/dados/previsoes/todas_previsoes.xlsx
@@ -687,109 +687,109 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.3992679288412299</v>
+        <v>0.4103084890224243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3869091940498399</v>
+        <v>0.362725602719507</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2138228771089302</v>
+        <v>0.2269659082580686</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001959301241158507</v>
+        <v>0.1746273974089039</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01221657118434385</v>
+        <v>0.3047423991504375</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0380861830654214</v>
+        <v>0.2659030920059666</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07915790874566365</v>
+        <v>0.1546758935534708</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1233907025985701</v>
+        <v>0.06748125378895869</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1538723367408601</v>
+        <v>0.02355231708478556</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1599032957607333</v>
+        <v>0.006850194299850672</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1424319733583861</v>
+        <v>0.001707754155875252</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1110108992498797</v>
+        <v>0.000372525378564981</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07690794863412594</v>
+        <v>7.223270122734607e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04795339325029553</v>
+        <v>1.260533398295713e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02718158484569452</v>
+        <v>1.99977977893958e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01412347759476245</v>
+        <v>2.90818096438967e-07</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006774018982748724</v>
+        <v>3.903899024224559e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003016938727528701</v>
+        <v>4.866212176552516e-09</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001254074529205294</v>
+        <v>5.661353622861605e-10</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.002100947576507217</v>
+        <v>0.1957460509155415</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01295311245589199</v>
+        <v>0.3192495002256387</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.039930344805157</v>
+        <v>0.2603379299802466</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0820617408461016</v>
+        <v>0.1415315977806226</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1264851833277249</v>
+        <v>0.05770728406303247</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.155965510226762</v>
+        <v>0.01882339031651889</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1602640966865078</v>
+        <v>0.005116627660340079</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1411552774862973</v>
+        <v>0.001192128281781529</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1087842578432114</v>
+        <v>0.0002430357830870199</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.07452165029566002</v>
+        <v>4.404178663833926e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04594533092934719</v>
+        <v>7.182938459075523e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02575180166778957</v>
+        <v>1.064992813850527e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01323077527312909</v>
+        <v>1.447446925814684e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.006274814055987198</v>
+        <v>1.815919167906824e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.002763323593868774</v>
+        <v>2.115464267871911e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.001135793571232528</v>
+        <v>2.300126131466461e-10</v>
       </c>
     </row>
     <row r="3">
@@ -824,109 +824,109 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3445676239433939</v>
+        <v>0.3741074289656309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4858160912515388</v>
+        <v>0.3893121292810714</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1696162848050673</v>
+        <v>0.2365804417532977</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005991996684547221</v>
+        <v>0.2113288893302999</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03066302790552696</v>
+        <v>0.3284768701520276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0784564252813978</v>
+        <v>0.2552823103523546</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1338291549223477</v>
+        <v>0.1322651382803584</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1712120069483617</v>
+        <v>0.05139623691564073</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1752296879722186</v>
+        <v>0.01597744169587249</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1494513736415985</v>
+        <v>0.004139061833846032</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1092560122097014</v>
+        <v>0.0009190725554817676</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06988739162423738</v>
+        <v>0.0001785688633390217</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03973743186001139</v>
+        <v>3.08396292317875e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02033495754695289</v>
+        <v>4.793525825460385e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.009460063656515676</v>
+        <v>6.773424740631977e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00403418942464642</v>
+        <v>8.773502154484744e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001588021610214309</v>
+        <v>1.049000168960086e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.00058045939695047</v>
+        <v>1.164644676365099e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001980268417328358</v>
+        <v>1.206835592754517e-10</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.003053744141402952</v>
+        <v>0.2039976250439873</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01768541367565505</v>
+        <v>0.3242841977964455</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05121153613336971</v>
+        <v>0.257748689274713</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.09886193904338299</v>
+        <v>0.1365764706272319</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1431369335314028</v>
+        <v>0.05427709171328793</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1657922710318885</v>
+        <v>0.01725628241130003</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1600278631550209</v>
+        <v>0.004571899384850442</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1323976089902273</v>
+        <v>0.001038243686907491</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.09584572152400683</v>
+        <v>0.0002063051108152735</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.06167551684838159</v>
+        <v>3.643914282913409e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03571867774823935</v>
+        <v>5.792537142620075e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.01880551643176127</v>
+        <v>8.370989881045876e-07</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.009075835053621325</v>
+        <v>1.108909861798553e-07</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.004043205524429845</v>
+        <v>1.35598088791615e-08</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001672554808696113</v>
+        <v>1.539664894104187e-09</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0006457607954325288</v>
+        <v>1.631682378499141e-10</v>
       </c>
     </row>
     <row r="4">
@@ -961,109 +961,109 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.2370583711053921</v>
+        <v>0.3274009040957783</v>
       </c>
       <c r="L4" t="n">
-        <v>0.560072196410673</v>
+        <v>0.4414379664870582</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2028694324839349</v>
+        <v>0.2311611294171635</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006492958239877237</v>
+        <v>0.2282091199810196</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03270527113419646</v>
+        <v>0.337177349350874</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08236883100464291</v>
+        <v>0.2490885660589219</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1382982841559437</v>
+        <v>0.1226755274056571</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1741533948630402</v>
+        <v>0.04531305449613515</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1754434200101739</v>
+        <v>0.01338994305509725</v>
       </c>
       <c r="T4" t="n">
-        <v>0.147285834082615</v>
+        <v>0.003297257582323568</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1059834573292892</v>
+        <v>0.0006959535133060654</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06673032498510797</v>
+        <v>0.000128533294871982</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03734701316038967</v>
+        <v>2.110078085489393e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01881182885115924</v>
+        <v>3.117625342264379e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.008614170787062825</v>
+        <v>4.187517488988109e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003615824774816495</v>
+        <v>5.155856053630666e-08</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001401003331552832</v>
+        <v>5.859800458936802e-09</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0005040646907174197</v>
+        <v>6.184152458291845e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0001692661677470835</v>
+        <v>6.09136080697084e-11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001068854151069696</v>
+        <v>0.1744684430155444</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.007312210912410558</v>
+        <v>0.3046238897495054</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02501203198493712</v>
+        <v>0.2659383914999777</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05703717170354252</v>
+        <v>0.1547771540653005</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.09755021976718757</v>
+        <v>0.06756066871005652</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1334714901515437</v>
+        <v>0.02359233949798185</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1521834832508996</v>
+        <v>0.006865415603674348</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1487303985169809</v>
+        <v>0.001712441983195696</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1271862070651356</v>
+        <v>0.0003737429022085048</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.09667802460118941</v>
+        <v>7.250659627049146e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.06613906170188193</v>
+        <v>1.265973433742754e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.04113349440861015</v>
+        <v>2.00945822032957e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02345009578553551</v>
+        <v>2.923780793753514e-07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01234046515560313</v>
+        <v>3.926888142563744e-08</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.006030228318048816</v>
+        <v>4.897422462698793e-09</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.002750253703459592</v>
+        <v>5.700636953969515e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,109 +1098,109 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.4060325426586354</v>
+        <v>0.3790063592041725</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4301407871193546</v>
+        <v>0.3689697158364057</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1638266702220101</v>
+        <v>0.2520239249594218</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005226403797795706</v>
+        <v>0.2420846928811411</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02745969200298664</v>
+        <v>0.3433893038307004</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07213704815698614</v>
+        <v>0.2435433082983641</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1263367828072593</v>
+        <v>0.1151527675347647</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1659443701039097</v>
+        <v>0.04083511870095376</v>
       </c>
       <c r="S5" t="n">
-        <v>0.174375401097208</v>
+        <v>0.01158465891889269</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1526956518057438</v>
+        <v>0.002738743972843018</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1146096882293123</v>
+        <v>0.0005549742441742639</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0752703690026444</v>
+        <v>9.840162603988808e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04394143510379843</v>
+        <v>1.550883584468714e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0230869699472596</v>
+        <v>2.199878183353991e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01102724321560765</v>
+        <v>2.836778202416373e-07</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004828123920669914</v>
+        <v>3.35323174318495e-08</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001951316680325935</v>
+        <v>3.658808252889589e-09</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0007323057131100256</v>
+        <v>3.707072228840167e-10</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0002565038359328455</v>
+        <v>3.50557467240483e-11</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.004678219413788816</v>
+        <v>0.2475144979072078</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02509788792014132</v>
+        <v>0.345601058244937</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06732304775994105</v>
+        <v>0.241278980564601</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1203924084265277</v>
+        <v>0.1122981639734721</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1614714331385821</v>
+        <v>0.03920009195051805</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.173253606672313</v>
+        <v>0.01094690886872964</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1549129137040745</v>
+        <v>0.002547502820731856</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1187260915695446</v>
+        <v>0.0005081489760750198</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.07961827663069122</v>
+        <v>8.869017035491288e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.04745990364012224</v>
+        <v>1.375965044011854e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0254614680694467</v>
+        <v>1.921240894328599e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01241787672863359</v>
+        <v>2.438729087634868e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.005551657777863948</v>
+        <v>2.83763631553445e-08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.002291057153219905</v>
+        <v>3.047809388183264e-09</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0008779392720088359</v>
+        <v>3.039724249318445e-10</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0003140001141548694</v>
+        <v>2.829549854573479e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1235,109 +1235,109 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.4269534526294731</v>
+        <v>0.3596950327332304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4013053980747178</v>
+        <v>0.4037159281887885</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1717411492958092</v>
+        <v>0.236589039077981</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003809214747583167</v>
+        <v>0.2192635895907709</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02121859161881956</v>
+        <v>0.3327282582864101</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05909730221588271</v>
+        <v>0.2524543497370708</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1097305354328279</v>
+        <v>0.1276981983824693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1528088840974927</v>
+        <v>0.04844488682937705</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1702392499372437</v>
+        <v>0.0147028358403737</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1580481963377703</v>
+        <v>0.003718544857484826</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1257687084911246</v>
+        <v>0.0008061171331989825</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08757168605395331</v>
+        <v>0.0001529083956692992</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05420037598531453</v>
+        <v>2.578172603596073e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03019141003663647</v>
+        <v>3.912327083385336e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01528874399233102</v>
+        <v>5.397164285362056e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00709694859777813</v>
+        <v>6.825077051878364e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.003040950876606857</v>
+        <v>7.966863446377979e-09</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001209936187814618</v>
+        <v>8.635400900240674e-10</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0004493164349311729</v>
+        <v>8.736035948040248e-11</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.004307192556023231</v>
+        <v>0.1979703969858633</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0234632977804659</v>
+        <v>0.3206403322284874</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.06390779325212113</v>
+        <v>0.2596605962732304</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1160452401468225</v>
+        <v>0.1401853696702627</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1580382110943107</v>
+        <v>0.05676237986714762</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1721816500826038</v>
+        <v>0.01838689886547177</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1563256992295596</v>
+        <v>0.004963352644837987</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1216541993107865</v>
+        <v>0.001148404772515874</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.08283843441946578</v>
+        <v>0.0002324999680498727</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.05013997785668949</v>
+        <v>4.184063663257207e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.02731359733412214</v>
+        <v>6.776667539580328e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01352636125758467</v>
+        <v>9.977951544893222e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.006140369431379935</v>
+        <v>1.346722265477054e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.002573036301427832</v>
+        <v>1.677847881829834e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.001001181100070206</v>
+        <v>1.941075572227365e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0003635935314798275</v>
+        <v>2.095892873667126e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1372,109 +1372,109 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.3002999666905673</v>
+        <v>0.3362439269272987</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5038946264215464</v>
+        <v>0.4413954956665697</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1958054068878863</v>
+        <v>0.2223605774061316</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004681909940790188</v>
+        <v>0.2011644635979934</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02511399501626318</v>
+        <v>0.3225938673724233</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06735635175101677</v>
+        <v>0.258661001563038</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1204342603468367</v>
+        <v>0.1382657276873647</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1615038228195461</v>
+        <v>0.05543185290030297</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1732628885515462</v>
+        <v>0.01777846393234076</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1548984415411637</v>
+        <v>0.004751687030349623</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1186975504224356</v>
+        <v>0.001088565664309338</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07958743673657095</v>
+        <v>0.0002182074068013244</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04743454688926153</v>
+        <v>3.888049829164147e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02544412406989953</v>
+        <v>6.23500298458908e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01240759381545727</v>
+        <v>9.089684809506809e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.005546245250085225</v>
+        <v>1.214709481754786e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.002288487084103009</v>
+        <v>1.498421213111386e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.000876825513393631</v>
+        <v>1.716369231440924e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0003135556763797062</v>
+        <v>1.834950296576084e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001574258678666799</v>
+        <v>0.1557768905313554</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01016021954017405</v>
+        <v>0.2896407213191619</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03278688010535778</v>
+        <v>0.269268911326094</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07053518891611738</v>
+        <v>0.1668866317703629</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1138080123690852</v>
+        <v>0.07757435046946798</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1469027176753447</v>
+        <v>0.02884727092600373</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1580176416637497</v>
+        <v>0.008939435037076534</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1456916064032212</v>
+        <v>0.002374480582446916</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1175361716499278</v>
+        <v>0.000551868016424294</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.08428611327828159</v>
+        <v>0.0001140116695849653</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05439801137514153</v>
+        <v>2.119853728287404e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0319166524426588</v>
+        <v>3.583189690296733e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01716576190216041</v>
+        <v>5.55194485192286e-07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.008522102002859343</v>
+        <v>7.940692546539901e-08</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.003928671247260846</v>
+        <v>1.054597979891246e-08</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.001690368633577793</v>
+        <v>1.307230781816758e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1509,109 +1509,109 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.4393150446534946</v>
+        <v>0.4141374343938785</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3867619268892489</v>
+        <v>0.3555827390842121</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1739230284572565</v>
+        <v>0.2302798265219095</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003402017121872659</v>
+        <v>0.1805234510570689</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01933497904099347</v>
+        <v>0.3090371186721262</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05494408186721204</v>
+        <v>0.2645194853021565</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1040894889974767</v>
+        <v>0.150943158338968</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1478952057012358</v>
+        <v>0.06459969392231296</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1681091305573888</v>
+        <v>0.02211757326813094</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1592382009205152</v>
+        <v>0.006310492325492959</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1292874687922494</v>
+        <v>0.00154327109323589</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09184883591889553</v>
+        <v>0.0003302396788276763</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05800138414007046</v>
+        <v>6.281505761810075e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03296442982272705</v>
+        <v>1.075327571118981e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01703178215874803</v>
+        <v>1.673497680124625e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.008066517090525678</v>
+        <v>2.387376349821668e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.003526548951398331</v>
+        <v>3.143797423184523e-08</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.001431624399367067</v>
+        <v>3.844178422173361e-09</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0005424316763599027</v>
+        <v>4.387218821317025e-10</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.004388156139766445</v>
+        <v>0.2073996961756615</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02382262458184745</v>
+        <v>0.3262620067891549</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.06466468191784168</v>
+        <v>0.2566225964572512</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1170182032397866</v>
+        <v>0.1345649726131913</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1588184556470757</v>
+        <v>0.05292129016804649</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1724401924198826</v>
+        <v>0.01665017514536189</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1560252125645283</v>
+        <v>0.004365419088910379</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1210052678762812</v>
+        <v>0.0009810390404107641</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.08211487288815905</v>
+        <v>0.0001929099776692946</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.04953211242804984</v>
+        <v>3.371868029842322e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.02689022180468933</v>
+        <v>5.304310711780334e-06</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01327117065640522</v>
+        <v>7.585682443434338e-07</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.006003928647921808</v>
+        <v>9.944244625620419e-08</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002507261919095163</v>
+        <v>1.203335791258919e-08</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0009722528018689017</v>
+        <v>1.352126068431195e-09</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0003518807255994748</v>
+        <v>1.418026392686229e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1646,109 +1646,109 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.3507026944956574</v>
+        <v>0.4005764513874357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4374103795170629</v>
+        <v>0.3834075373866053</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2118869259872798</v>
+        <v>0.216016011225959</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002677842913715093</v>
+        <v>0.1539075573271856</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01586017722401715</v>
+        <v>0.2880230851134713</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04696788229975976</v>
+        <v>0.2695036520588996</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09272624286457343</v>
+        <v>0.1681166596871215</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1372984424905161</v>
+        <v>0.07865351094995143</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1626366968225228</v>
+        <v>0.02943848537684473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1605425783518279</v>
+        <v>0.0091818789652648</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1358360775927744</v>
+        <v>0.002454713867245113</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1005652839549815</v>
+        <v>0.0005742199029997483</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06618026679195983</v>
+        <v>0.0001193996584470316</v>
       </c>
       <c r="X9" t="n">
-        <v>0.039196875764345</v>
+        <v>2.234448950047386e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02110482260541236</v>
+        <v>3.801413425150216e-06</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01041653791219164</v>
+        <v>5.928314164239648e-07</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004745729554356773</v>
+        <v>8.534050542861863e-08</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002007695698542971</v>
+        <v>1.140760637914241e-08</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0007927378021989616</v>
+        <v>1.423215355217365e-09</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001645004416423942</v>
+        <v>0.1606600573993105</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01054449839480147</v>
+        <v>0.2937612261369779</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0337951817295658</v>
+        <v>0.268566000094903</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.07220917584203282</v>
+        <v>0.1636878071701743</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1157154247055873</v>
+        <v>0.07482433984582587</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1483474570499125</v>
+        <v>0.02736273119007871</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1584848351690337</v>
+        <v>0.008338630848856887</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1451271040764682</v>
+        <v>0.002178127320608547</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1162833136417342</v>
+        <v>0.0004978285850431631</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.08281971780713304</v>
+        <v>0.0001011402155690475</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.05308754023734867</v>
+        <v>1.849313028905291e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.03093561646553817</v>
+        <v>3.074003082693454e-06</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.01652480660569626</v>
+        <v>4.683921491017489e-07</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.008148016316200253</v>
+        <v>6.587988148602741e-08</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.003730634576730158</v>
+        <v>8.604216468153181e-09</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.001594227545862265</v>
+        <v>1.048833676334164e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1783,109 +1783,109 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.3490501999302086</v>
+        <v>0.3561540598670802</v>
       </c>
       <c r="L10" t="n">
-        <v>0.481936965572505</v>
+        <v>0.4083679394766216</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1690128344972864</v>
+        <v>0.2354780006562982</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00594562748321664</v>
+        <v>0.2188612619886077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03047193069548164</v>
+        <v>0.3325196921880944</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07808583391167045</v>
+        <v>0.2526014532864671</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1333992151359394</v>
+        <v>0.1279272490250826</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1709210529052025</v>
+        <v>0.04859051926524163</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1751974705185649</v>
+        <v>0.0147648828874786</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1496507361848474</v>
+        <v>0.003738756894305337</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1095678384643624</v>
+        <v>0.0008114796955089419</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07019325524438767</v>
+        <v>0.0001541118881179436</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0399719329715643</v>
+        <v>2.601609456647582e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02048601219488079</v>
+        <v>3.952670142983629e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.009544804076476709</v>
+        <v>5.45941814431033e-07</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00407650564975912</v>
+        <v>6.912156832359947e-08</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001607115066942966</v>
+        <v>8.078276274793709e-09</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.000588330296721516</v>
+        <v>8.766760392593872e-10</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0002010167424532418</v>
+        <v>8.879660233899933e-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00316100397538063</v>
+        <v>0.1938038665650151</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01819747500976531</v>
+        <v>0.3180144368654879</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.05238020883715565</v>
+        <v>0.260916316705545</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1005152739176432</v>
+        <v>0.1427132784582424</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.144663230374123</v>
+        <v>0.05854486250265329</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1665613545612854</v>
+        <v>0.01921335400592012</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1598118883972971</v>
+        <v>0.005254559728163965</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1314307944123097</v>
+        <v>0.001231750342347535</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.09457867719636495</v>
+        <v>0.0002526487206004194</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.06049741468013847</v>
+        <v>4.606371839884764e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.03482754847420481</v>
+        <v>7.558635297725446e-06</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01822704684814334</v>
+        <v>1.127548170821064e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.008744221564420623</v>
+        <v>1.541836268705543e-07</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.003872254478390096</v>
+        <v>1.946163413009452e-08</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001592289182505026</v>
+        <v>2.281054526214564e-09</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0006111063200727908</v>
+        <v>2.495334702624018e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1920,109 +1920,109 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.4356038602026643</v>
+        <v>0.3896445058944634</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3971210158528823</v>
+        <v>0.3656320204026326</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1672751239444533</v>
+        <v>0.244723473702904</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004119639072419866</v>
+        <v>0.2214293708917937</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02262501544918672</v>
+        <v>0.3338383470062968</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06212817616753675</v>
+        <v>0.2516559602798993</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1137357683452464</v>
+        <v>0.1264698376970331</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1561589177292167</v>
+        <v>0.04766811353084245</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1715246342722193</v>
+        <v>0.0143733815996988</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1570019214509133</v>
+        <v>0.003611675312695985</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1231789913053294</v>
+        <v>0.0007778782987859609</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08456221929598802</v>
+        <v>0.0001465961834652438</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0516016488164345</v>
+        <v>2.455733018632947e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02833957250020837</v>
+        <v>3.702389833505089e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0141491491756501</v>
+        <v>5.074467258760834e-07</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.006475581822104706</v>
+        <v>6.375440600538531e-08</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.002735679139922842</v>
+        <v>7.393802516068671e-09</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001073165837324107</v>
+        <v>7.962341607149554e-10</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0003929210499943958</v>
+        <v>8.002958083126889e-11</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.004933589103408736</v>
+        <v>0.2337816010325194</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02620568871614263</v>
+        <v>0.3397706811831703</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0695982282566743</v>
+        <v>0.2469059055156721</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1232280372132661</v>
+        <v>0.1196150414670399</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1636372383586276</v>
+        <v>0.0434611662546489</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1738380088375252</v>
+        <v>0.01263301303279465</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1538955599782551</v>
+        <v>0.003060069330086296</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1167778975350871</v>
+        <v>0.0006353438032756793</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.07753597755069662</v>
+        <v>0.0001154235383960217</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.04576077373573061</v>
+        <v>1.863920765372472e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02430669775680833</v>
+        <v>2.708962661411352e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01173723709013715</v>
+        <v>3.579199501128622e-07</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.005195378981452911</v>
+        <v>4.334911470142355e-08</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.002122787308615934</v>
+        <v>4.846324079245526e-09</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0008053989304478993</v>
+        <v>5.031065705180462e-10</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0002852018847570036</v>
+        <v>4.8746596942807e-11</v>
       </c>
     </row>
     <row r="12">

--- a/dados/previsoes/todas_previsoes.xlsx
+++ b/dados/previsoes/todas_previsoes.xlsx
@@ -687,109 +687,109 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4103084890224243</v>
+        <v>0.4121469148076463</v>
       </c>
       <c r="L2" t="n">
-        <v>0.362725602719507</v>
+        <v>0.3623417479748496</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2269659082580686</v>
+        <v>0.2255113372175042</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1746273974089039</v>
+        <v>0.170821072388089</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3047423991504375</v>
+        <v>0.3018645159375399</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2659030920059666</v>
+        <v>0.2667182236603235</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1546758935534708</v>
+        <v>0.1571093588384046</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06748125378895869</v>
+        <v>0.0694085043080422</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02355231708478556</v>
+        <v>0.02453088985098393</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006850194299850672</v>
+        <v>0.007224913849778548</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001707754155875252</v>
+        <v>0.001823917766671695</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000372525378564981</v>
+        <v>0.0004028894430654422</v>
       </c>
       <c r="W2" t="n">
-        <v>7.223270122734607e-05</v>
+        <v>7.910683318910348e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>1.260533398295713e-05</v>
+        <v>1.39792740872908e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.99977977893958e-06</v>
+        <v>2.245755933399954e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.90818096438967e-07</v>
+        <v>3.307135054008842e-07</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.903899024224559e-08</v>
+        <v>4.495512392731535e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.866212176552516e-09</v>
+        <v>5.674424009669762e-09</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.661353622861605e-10</v>
+        <v>6.684995915928362e-10</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1957460509155415</v>
+        <v>0.1926221109892317</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3192495002256387</v>
+        <v>0.3172534291859954</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2603379299802466</v>
+        <v>0.2612621619952554</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1415315977806226</v>
+        <v>0.1434351026886619</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05770728406303247</v>
+        <v>0.05906029941205358</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01882339031651889</v>
+        <v>0.01945475773367794</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.005116627660340079</v>
+        <v>0.005340412006090286</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001192128281781529</v>
+        <v>0.001256541713793268</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002430357830870199</v>
+        <v>0.0002586944494383924</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.404178663833926e-05</v>
+        <v>4.734180237046923e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.182938459075523e-06</v>
+        <v>7.7973131271086e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.064992813850527e-06</v>
+        <v>1.167488138637734e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.447446925814684e-07</v>
+        <v>1.602401776958609e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.815919167906824e-08</v>
+        <v>2.030150584890226e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.115464267871911e-09</v>
+        <v>2.388363381221517e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.300126131466461e-10</v>
+        <v>2.622462772466605e-10</v>
       </c>
     </row>
     <row r="3">
@@ -824,109 +824,109 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3741074289656309</v>
+        <v>0.3884644681007905</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3893121292810714</v>
+        <v>0.3746945573935047</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2365804417532977</v>
+        <v>0.2368409745057048</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2113288893302999</v>
+        <v>0.2049493009878269</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3284768701520276</v>
+        <v>0.3248431341891291</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2552823103523546</v>
+        <v>0.2574369888582449</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1322651382803584</v>
+        <v>0.1360119110984286</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05139623691564073</v>
+        <v>0.0538944696021322</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01597744169587249</v>
+        <v>0.01708446756015746</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004139061833846032</v>
+        <v>0.004513125897839879</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0009190725554817676</v>
+        <v>0.001021895906226731</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001785688633390217</v>
+        <v>0.0002024621866199049</v>
       </c>
       <c r="W3" t="n">
-        <v>3.08396292317875e-05</v>
+        <v>3.565567513493964e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>4.793525825460385e-06</v>
+        <v>5.651398275884404e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.773424740631977e-07</v>
+        <v>8.143113352871988e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.773502154484744e-08</v>
+        <v>1.075564562737641e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.049000168960086e-08</v>
+        <v>1.311355322055246e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.164644676365099e-09</v>
+        <v>1.484634669573795e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.206835592754517e-10</v>
+        <v>1.568756685566307e-10</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2039976250439873</v>
+        <v>0.211602730266259</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3242841977964455</v>
+        <v>0.3286284936928083</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.257748689274713</v>
+        <v>0.2551873662757382</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1365764706272319</v>
+        <v>0.1321057935360093</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05427709171328793</v>
+        <v>0.05129154983397959</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01725628241130003</v>
+        <v>0.01593161367993754</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.004571899384850442</v>
+        <v>0.004123751301275506</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.001038243686907491</v>
+        <v>0.0009149100005850623</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0002063051108152735</v>
+        <v>0.00017761201319238</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.643914282913409e-05</v>
+        <v>3.064882127818507e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.792537142620075e-06</v>
+        <v>4.759898871548763e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.370989881045876e-07</v>
+        <v>6.720305092123644e-07</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.108909861798553e-07</v>
+        <v>8.697445037696277e-08</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.35598088791615e-08</v>
+        <v>1.03904005474265e-08</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.539664894104187e-09</v>
+        <v>1.152625446639398e-09</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.631682378499141e-10</v>
+        <v>1.193385875643732e-10</v>
       </c>
     </row>
     <row r="4">
@@ -961,109 +961,109 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.3274009040957783</v>
+        <v>0.3386240427584576</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4414379664870582</v>
+        <v>0.4301975050874753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2311611294171635</v>
+        <v>0.2311784521540671</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2282091199810196</v>
+        <v>0.2202491582266114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.337177349350874</v>
+        <v>0.3332360592953933</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2490885660589219</v>
+        <v>0.2520923850716126</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1226755274056571</v>
+        <v>0.1271382429730002</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04531305449613515</v>
+        <v>0.04808990805593902</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01338994305509725</v>
+        <v>0.01455196612915153</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003297257582323568</v>
+        <v>0.003669510693346346</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0006959535133060654</v>
+        <v>0.0007931363427796409</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000128533294871982</v>
+        <v>0.0001500014980079467</v>
       </c>
       <c r="W4" t="n">
-        <v>2.110078085489393e-05</v>
+        <v>2.521684909896667e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>3.117625342264379e-06</v>
+        <v>3.815298768561165e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.187517488988109e-07</v>
+        <v>5.247755591096882e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.155856053630666e-08</v>
+        <v>6.616526965047597e-08</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.859800458936802e-09</v>
+        <v>7.700598267215545e-09</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.184152458291845e-10</v>
+        <v>8.32212365254726e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.09136080697084e-11</v>
+        <v>8.394225622391069e-11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1744684430155444</v>
+        <v>0.1774667223371851</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3046238897495054</v>
+        <v>0.3068350235666786</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2659383914999777</v>
+        <v>0.2652546078703262</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1547771540653005</v>
+        <v>0.1528726114304453</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.06756066871005652</v>
+        <v>0.0660781225815369</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02359233949798185</v>
+        <v>0.02284944696395</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.006865415603674348</v>
+        <v>0.00658434297365369</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.001712441983195696</v>
+        <v>0.001626306534612129</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0003737429022085048</v>
+        <v>0.0003514798417574916</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.250659627049146e-05</v>
+        <v>6.752209597918961e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.265973433742754e-05</v>
+        <v>1.16743824634806e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.00945822032957e-06</v>
+        <v>1.834971122848556e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.923780793753514e-07</v>
+        <v>2.643844999541446e-07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.926888142563744e-08</v>
+        <v>3.516257245550722e-08</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.897422462698793e-09</v>
+        <v>4.34250779363877e-09</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.700636953969515e-10</v>
+        <v>5.005383408043602e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,109 +1098,109 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.3790063592041725</v>
+        <v>0.3675913984295984</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3689697158364057</v>
+        <v>0.3794002553417878</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2520239249594218</v>
+        <v>0.2530083462286138</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2420846928811411</v>
+        <v>0.2503695332626307</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3433893038307004</v>
+        <v>0.3467160659203735</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2435433082983641</v>
+        <v>0.2400692065060522</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1151527675347647</v>
+        <v>0.1108173316773492</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04083511870095376</v>
+        <v>0.03836544005002788</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01158465891889269</v>
+        <v>0.01062582516978714</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002738743972843018</v>
+        <v>0.002452471121397532</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0005549742441742639</v>
+        <v>0.0004851749263314064</v>
       </c>
       <c r="V5" t="n">
-        <v>9.840162603988808e-05</v>
+        <v>8.398483011727718e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.550883584468714e-05</v>
+        <v>1.292262747955767e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>2.199878183353991e-06</v>
+        <v>1.789547834626843e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.836778202416373e-07</v>
+        <v>2.252906213949587e-07</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.35323174318495e-08</v>
+        <v>2.599886286779135e-08</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.658808252889589e-09</v>
+        <v>2.769513506528717e-09</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.707072228840167e-10</v>
+        <v>2.739478764459823e-10</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.50557467240483e-11</v>
+        <v>2.52911842616137e-11</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2475144979072078</v>
+        <v>0.2439389796102786</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.345601058244937</v>
+        <v>0.3441581792873351</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.241278980564601</v>
+        <v>0.2427755755960019</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1122981639734721</v>
+        <v>0.1141722685539923</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03920009195051805</v>
+        <v>0.04026962002282538</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01094690886872964</v>
+        <v>0.01136277533815217</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.002547502820731856</v>
+        <v>0.002671837630785861</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0005081489760750198</v>
+        <v>0.0005385039768269183</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.869017035491288e-05</v>
+        <v>9.496767823854413e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.375965044011854e-05</v>
+        <v>1.488710336309844e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.921240894328599e-06</v>
+        <v>2.100327875639944e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.438729087634868e-07</v>
+        <v>2.693836939137628e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.83763631553445e-08</v>
+        <v>3.167137733077533e-08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.047809388183264e-09</v>
+        <v>3.43716587052152e-09</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.039724249318445e-10</v>
+        <v>3.463772403237656e-10</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.829549854573479e-11</v>
+        <v>3.25787923320957e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1235,109 +1235,109 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.3596950327332304</v>
+        <v>0.3774876594236305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4037159281887885</v>
+        <v>0.3885568312933939</v>
       </c>
       <c r="M6" t="n">
-        <v>0.236589039077981</v>
+        <v>0.2339555092829756</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2192635895907709</v>
+        <v>0.2038004511593692</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3327282582864101</v>
+        <v>0.3241678395013518</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2524543497370708</v>
+        <v>0.2578129429281767</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1276981983824693</v>
+        <v>0.1366936206946178</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04844488682937705</v>
+        <v>0.05435669479889965</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0147028358403737</v>
+        <v>0.0172921033443783</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003718544857484826</v>
+        <v>0.004584176784768871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0008061171331989825</v>
+        <v>0.001041665073960517</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001529083956692992</v>
+        <v>0.0002071108740123323</v>
       </c>
       <c r="W6" t="n">
-        <v>2.578172603596073e-05</v>
+        <v>3.660371602814832e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>3.912327083385336e-06</v>
+        <v>5.822238113343028e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.397164285362056e-07</v>
+        <v>8.419030119136799e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.825077051878364e-08</v>
+        <v>1.11595222552738e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.966863446377979e-09</v>
+        <v>1.365422439442413e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.635400900240674e-10</v>
+        <v>1.551328551611296e-09</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.736035948040248e-11</v>
+        <v>1.645043217754674e-10</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1979703969858633</v>
+        <v>0.1985827751100701</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3206403322284874</v>
+        <v>0.3210188386897211</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2596605962732304</v>
+        <v>0.2594713834988385</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1401853696702627</v>
+        <v>0.139816091229201</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.05676237986714762</v>
+        <v>0.05650489979764885</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01838689886547177</v>
+        <v>0.01826859082140046</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.004963352644837987</v>
+        <v>0.004922012837159949</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.001148404772515874</v>
+        <v>0.001136668031846593</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0002324999680498727</v>
+        <v>0.0002296849836024756</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.184063663257207e-05</v>
+        <v>4.125523232183977e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.776667539580328e-06</v>
+        <v>6.669111539251545e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.977951544893222e-07</v>
+        <v>9.800861219692614e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.346722265477054e-07</v>
+        <v>1.320297914879135e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.677847881829834e-08</v>
+        <v>1.641789708343318e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.941075572227365e-09</v>
+        <v>1.895738530382808e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.095892873667126e-10</v>
+        <v>2.043036482378808e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1372,109 +1372,109 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.3362439269272987</v>
+        <v>0.349843485411959</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4413954956665697</v>
+        <v>0.4288299535292143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2223605774061316</v>
+        <v>0.2213265610588266</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2011644635979934</v>
+        <v>0.1900714871198825</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3225938673724233</v>
+        <v>0.3155861496203493</v>
       </c>
       <c r="P7" t="n">
-        <v>0.258661001563038</v>
+        <v>0.2619925253948816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1382657276873647</v>
+        <v>0.145000202417759</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05543185290030297</v>
+        <v>0.06018795384382123</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01777846393234076</v>
+        <v>0.01998667437701331</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004751687030349623</v>
+        <v>0.005530829221094606</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001088565664309338</v>
+        <v>0.001311877159289219</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0002182074068013244</v>
+        <v>0.0002722727299530728</v>
       </c>
       <c r="W7" t="n">
-        <v>3.888049829164147e-05</v>
+        <v>5.022993295518237e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>6.23500298458908e-06</v>
+        <v>8.339952181789449e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.089684809506809e-07</v>
+        <v>1.25884377741265e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.214709481754786e-07</v>
+        <v>1.741772997741572e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.498421213111386e-08</v>
+        <v>2.224585813228428e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.716369231440924e-09</v>
+        <v>2.638287316956446e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.834950296576084e-10</v>
+        <v>2.920329077467362e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1557768905313554</v>
+        <v>0.1566850682782942</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2896407213191619</v>
+        <v>0.2904185039383084</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.269268911326094</v>
+        <v>0.2691478784690596</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1668866317703629</v>
+        <v>0.1662900940127049</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.07757435046946798</v>
+        <v>0.07705539662074586</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.02884727092600373</v>
+        <v>0.02856470403066491</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.008939435037076534</v>
+        <v>0.008824196099413817</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.002374480582446916</v>
+        <v>0.002336543030287163</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.000551868016424294</v>
+        <v>0.0005413529019547641</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0001140116695849653</v>
+        <v>0.0001114896706253833</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.119853728287404e-05</v>
+        <v>2.066480469606051e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.583189690296733e-06</v>
+        <v>3.482052321985164e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.55194485192286e-07</v>
+        <v>5.378370538100261e-07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.940692546539901e-08</v>
+        <v>7.668387306434158e-08</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.054597979891246e-08</v>
+        <v>1.015249248346912e-08</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.307230781816758e-09</v>
+        <v>1.254521446828673e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1509,109 +1509,109 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.4141374343938785</v>
+        <v>0.4331218886241782</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3555827390842121</v>
+        <v>0.3386504901564606</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2302798265219095</v>
+        <v>0.2282276212193612</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1805234510570689</v>
+        <v>0.1703613613550542</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3090371186721262</v>
+        <v>0.3015112347059126</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2645194853021565</v>
+        <v>0.2668123332978604</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.150943158338968</v>
+        <v>0.1574044634838335</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06459969392231296</v>
+        <v>0.06964492088426301</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02211757326813094</v>
+        <v>0.02465198202196307</v>
       </c>
       <c r="T8" t="n">
-        <v>0.006310492325492959</v>
+        <v>0.007271650369415885</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00154327109323589</v>
+        <v>0.001838515715563393</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0003302396788276763</v>
+        <v>0.000406733324840047</v>
       </c>
       <c r="W8" t="n">
-        <v>6.281505761810075e-05</v>
+        <v>7.998336007200464e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>1.075327571118981e-05</v>
+        <v>1.415572255317755e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.673497680124625e-06</v>
+        <v>2.277570107561284e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.387376349821668e-07</v>
+        <v>3.359099787445771e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.143797423184523e-08</v>
+        <v>4.573113186072798e-08</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.844178422173361e-09</v>
+        <v>5.781177610661424e-09</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.387218821317025e-10</v>
+        <v>6.821147649835492e-10</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2073996961756615</v>
+        <v>0.2133659389862156</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3262620067891549</v>
+        <v>0.3295963011187539</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2566225964572512</v>
+        <v>0.2545713768264168</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1345649726131913</v>
+        <v>0.1310827532131955</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05292129016804649</v>
+        <v>0.05062240815569311</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01665017514536189</v>
+        <v>0.01563975821175301</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.004365419088910379</v>
+        <v>0.004026577126506959</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0009810390404107641</v>
+        <v>0.0008885773115373356</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0001929099776692946</v>
+        <v>0.0001715783436031894</v>
       </c>
       <c r="AM8" t="n">
-        <v>3.371868029842322e-05</v>
+        <v>2.944945074821658e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.304310711780334e-06</v>
+        <v>4.549193785432717e-06</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.585682443434338e-07</v>
+        <v>6.388501335376575e-07</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.944244625620419e-08</v>
+        <v>8.223846238989682e-08</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.203335791258919e-08</v>
+        <v>9.772121707967075e-09</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.352126068431195e-09</v>
+        <v>1.078246530796458e-09</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.418026392686229e-10</v>
+        <v>1.110411749045539e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1646,109 +1646,109 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4005764513874357</v>
+        <v>0.4139715619503681</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3834075373866053</v>
+        <v>0.3717665489704334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.216016011225959</v>
+        <v>0.2142618890791985</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1539075573271856</v>
+        <v>0.1455867217294972</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2880230851134713</v>
+        <v>0.2805431879226751</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2695036520588996</v>
+        <v>0.2703010252406526</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1681166596871215</v>
+        <v>0.1736218578611762</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07865351094995143</v>
+        <v>0.08364160707583805</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02943848537684473</v>
+        <v>0.03223519674497508</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0091818789652648</v>
+        <v>0.01035278120458526</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002454713867245113</v>
+        <v>0.002849948135475013</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0005742199029997483</v>
+        <v>0.0006864753236442055</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001193996584470316</v>
+        <v>0.0001469807238810204</v>
       </c>
       <c r="X9" t="n">
-        <v>2.234448950047386e-05</v>
+        <v>2.832294068505661e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.801413425150216e-06</v>
+        <v>4.961621360131546e-06</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.928314164239648e-07</v>
+        <v>7.967468101376786e-07</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.534050542861863e-08</v>
+        <v>1.181013717501786e-07</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.140760637914241e-08</v>
+        <v>1.625566973575122e-08</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.423215355217365e-09</v>
+        <v>2.088293655405897e-09</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1606600573993105</v>
+        <v>0.1619009862587845</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2937612261369779</v>
+        <v>0.2947845116174835</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.268566000094903</v>
+        <v>0.2683674457382847</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.1636878071701743</v>
+        <v>0.1628784939364945</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.07482433984582587</v>
+        <v>0.07414108214775562</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.02736273119007871</v>
+        <v>0.02699877647043303</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.008338630848856887</v>
+        <v>0.008193095175039808</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.002178127320608547</v>
+        <v>0.002131106368175271</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0004978285850431631</v>
+        <v>0.0004850319047341273</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0001011402155690475</v>
+        <v>9.81257443960958e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.849313028905291e-05</v>
+        <v>1.786644436660162e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.074003082693454e-06</v>
+        <v>2.957335613043457e-06</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.683921491017489e-07</v>
+        <v>4.487190774873512e-07</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.587988148602741e-08</v>
+        <v>6.284726009547506e-08</v>
       </c>
       <c r="AR9" t="n">
-        <v>8.604216468153181e-09</v>
+        <v>8.173601877582449e-09</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.048833676334164e-09</v>
+        <v>9.92150117310006e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1783,109 +1783,109 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.3561540598670802</v>
+        <v>0.3518434028065578</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4083679394766216</v>
+        <v>0.4113514957144775</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2354780006562982</v>
+        <v>0.2368051014789647</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2188612619886077</v>
+        <v>0.2244837111648789</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3325196921880944</v>
+        <v>0.3353679185552055</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2526014532864671</v>
+        <v>0.2505118082118724</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1279272490250826</v>
+        <v>0.1247508831970591</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04859051926524163</v>
+        <v>0.04659296193320736</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0147648828874786</v>
+        <v>0.01392153094919645</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003738756894305337</v>
+        <v>0.003466350136873787</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0008114796955089419</v>
+        <v>0.0007397944531441364</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001541118881179436</v>
+        <v>0.0001381521874249755</v>
       </c>
       <c r="W10" t="n">
-        <v>2.601609456647582e-05</v>
+        <v>2.293252830394201e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>3.952670142983629e-06</v>
+        <v>3.426009951720991e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.45941814431033e-07</v>
+        <v>4.652995333141408e-07</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.912156832359947e-08</v>
+        <v>5.792793575924509e-08</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.078276274793709e-09</v>
+        <v>6.657043310957433e-09</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.766760392593872e-10</v>
+        <v>7.103788597980683e-10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.879660233899933e-11</v>
+        <v>7.07514674033867e-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1938038665650151</v>
+        <v>0.1955634343227336</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3180144368654879</v>
+        <v>0.3191341954284017</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.260916316705545</v>
+        <v>0.260392836330687</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1427132784582424</v>
+        <v>0.1416424609326079</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.05854486250265329</v>
+        <v>0.05778553767575652</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01921335400592012</v>
+        <v>0.01885970262019111</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.005254559728163965</v>
+        <v>0.005129431994412756</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.001231750342347535</v>
+        <v>0.001195795521511416</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0002526487206004194</v>
+        <v>0.0002439229264509735</v>
       </c>
       <c r="AM10" t="n">
-        <v>4.606371839884764e-05</v>
+        <v>4.422784700641403e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.558635297725446e-06</v>
+        <v>7.217411792139697e-06</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.127548170821064e-06</v>
+        <v>1.070716476837914e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.541836268705543e-07</v>
+        <v>1.456058842454238e-07</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.946163413009452e-08</v>
+        <v>1.827768801590349e-08</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.281054526214564e-09</v>
+        <v>2.130487108202948e-09</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.495334702624018e-10</v>
+        <v>2.317786013189928e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1920,109 +1920,109 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.3896445058944634</v>
+        <v>0.395336242424134</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3656320204026326</v>
+        <v>0.3594635702719875</v>
       </c>
       <c r="M11" t="n">
-        <v>0.244723473702904</v>
+        <v>0.2452001873038785</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2214293708917937</v>
+        <v>0.2198791809834358</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3338383470062968</v>
+        <v>0.3330459515898976</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2516559602798993</v>
+        <v>0.2522285315379093</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1264698376970331</v>
+        <v>0.1273482569358454</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04766811353084245</v>
+        <v>0.04822287087938138</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0143733815996988</v>
+        <v>0.01460841526568196</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003611675312695985</v>
+        <v>0.003687838583003415</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0007778782987859609</v>
+        <v>0.0007979835008174903</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001465961834652438</v>
+        <v>0.0001510859129512241</v>
       </c>
       <c r="W11" t="n">
-        <v>2.455733018632947e-05</v>
+        <v>2.542737406243496e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>3.702389833505089e-06</v>
+        <v>3.851426020953704e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.074467258760834e-07</v>
+        <v>5.303333314023482e-07</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.375440600538531e-08</v>
+        <v>6.694031097243113e-08</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.393802516068671e-09</v>
+        <v>7.799457959602211e-09</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.962341607149554e-10</v>
+        <v>8.438328613088939e-10</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.002958083126889e-11</v>
+        <v>8.520895187999244e-11</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2337816010325194</v>
+        <v>0.2384192310523356</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3397706811831703</v>
+        <v>0.3418275357173942</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2469059055156721</v>
+        <v>0.2450432871100432</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1196150414670399</v>
+        <v>0.1171082027894094</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0434611662546489</v>
+        <v>0.04197523013884891</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01263301303279465</v>
+        <v>0.01203618467872973</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.003060069330086296</v>
+        <v>0.002876095837578428</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0006353438032756793</v>
+        <v>0.0005890756548617284</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0001154235383960217</v>
+        <v>0.000105571538086358</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.863920765372472e-05</v>
+        <v>1.681783551634971e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.708962661411352e-06</v>
+        <v>2.411214584192816e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.579199501128622e-07</v>
+        <v>3.142743507127524e-07</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.334911470142355e-08</v>
+        <v>3.754857440580612e-08</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.846324079245526e-09</v>
+        <v>4.14110137075843e-09</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.031065705180462e-10</v>
+        <v>4.24085659795365e-10</v>
       </c>
       <c r="AS11" t="n">
-        <v>4.8746596942807e-11</v>
+        <v>4.053480512207899e-11</v>
       </c>
     </row>
     <row r="12">

--- a/dados/previsoes/todas_previsoes.xlsx
+++ b/dados/previsoes/todas_previsoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS121"/>
+  <dimension ref="A1:AI121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,107 +551,57 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>11_x</t>
+          <t>0_y</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>12_x</t>
+          <t>1_y</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>13_x</t>
+          <t>2_y</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>14_x</t>
+          <t>3_y</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>15_x</t>
+          <t>4_y</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>0_y</t>
+          <t>5_y</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>1_y</t>
+          <t>6_y</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2_y</t>
+          <t>7_y</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>3_y</t>
+          <t>8_y</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>4_y</t>
+          <t>9_y</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>5_y</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>6_y</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>7_y</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>8_y</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>9_y</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
           <t>10_y</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>11_y</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>12_y</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>13_y</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>14_y</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>15_y</t>
         </is>
       </c>
     </row>
@@ -687,109 +637,79 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4121469148076463</v>
+        <v>0.4257577556941294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3623417479748496</v>
+        <v>0.2252467689942394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2255113372175042</v>
+        <v>0.3489954753116311</v>
       </c>
       <c r="N2" t="n">
-        <v>0.170821072388089</v>
+        <v>0.3829934407644668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3018645159375399</v>
+        <v>0.3675731351419106</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2667182236603235</v>
+        <v>0.1763868454357463</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1571093588384046</v>
+        <v>0.05642835174513351</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0694085043080422</v>
+        <v>0.01353910012169428</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02453088985098393</v>
+        <v>0.002598796192852769</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007224913849778548</v>
+        <v>0.0004156936570919897</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001823917766671695</v>
+        <v>5.699382232273063e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0004028894430654422</v>
+        <v>6.837387969710222e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.910683318910348e-05</v>
+        <v>7.291218957203923e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.39792740872908e-05</v>
+        <v>6.997655640671266e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.245755933399954e-06</v>
+        <v>0.5435519488725162</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.307135054008842e-07</v>
+        <v>0.3313655718116477</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.495512392731535e-08</v>
+        <v>0.1010051959245327</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.674424009669762e-09</v>
+        <v>0.02052526569165775</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.684995915928362e-10</v>
+        <v>0.003128204404661857</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1926221109892317</v>
+        <v>0.0003814094470435276</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3172534291859954</v>
+        <v>3.875310654179542e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2612621619952554</v>
+        <v>3.375008020415296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1434351026886619</v>
+        <v>2.571882652784185e-07</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05906029941205358</v>
+        <v>1.742107564961403e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01945475773367794</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.005340412006090286</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.001256541713793268</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0002586944494383924</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4.734180237046923e-05</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7.7973131271086e-06</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.167488138637734e-06</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1.602401776958609e-07</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>2.030150584890226e-08</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>2.388363381221517e-09</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.622462772466605e-10</v>
+        <v>1.062041025918986e-09</v>
       </c>
     </row>
     <row r="3">
@@ -824,109 +744,79 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3884644681007905</v>
+        <v>0.3778335199214127</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3746945573935047</v>
+        <v>0.287346277794003</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2368409745057048</v>
+        <v>0.3348202022845843</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2049493009878269</v>
+        <v>0.3873615818836125</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3248431341891291</v>
+        <v>0.3673724467573583</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2574369888582449</v>
+        <v>0.1742074084634433</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1360119110984286</v>
+        <v>0.05507257721951287</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0538944696021322</v>
+        <v>0.01305766265202636</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01708446756015746</v>
+        <v>0.002476768839119636</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004513125897839879</v>
+        <v>0.0003914932331248206</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001021895906226731</v>
+        <v>5.304155588121717e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0002024621866199049</v>
+        <v>6.288054583635354e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.565567513493964e-05</v>
+        <v>6.626189143776466e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.651398275884404e-06</v>
+        <v>6.284255931084067e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.143113352871988e-07</v>
+        <v>0.4560867710515426</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.075564562737641e-07</v>
+        <v>0.3580610448207695</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.311355322055246e-08</v>
+        <v>0.1405518861274451</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.484634669573795e-09</v>
+        <v>0.03678112616033716</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.568756685566307e-10</v>
+        <v>0.007218959909915109</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.211602730266259</v>
+        <v>0.001133480947892409</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3286284936928083</v>
+        <v>0.0001483107302699811</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2551873662757382</v>
+        <v>1.663351876040252e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1321057935360093</v>
+        <v>1.632314146238009e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05129154983397959</v>
+        <v>1.423871620184538e-07</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01593161367993754</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.004123751301275506</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.0009149100005850623</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.00017761201319238</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>3.064882127818507e-05</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.759898871548763e-06</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.720305092123644e-07</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>8.697445037696277e-08</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.03904005474265e-08</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.152625446639398e-09</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.193385875643732e-10</v>
+        <v>1.117842025626965e-08</v>
       </c>
     </row>
     <row r="4">
@@ -961,109 +851,79 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.3386240427584576</v>
+        <v>0.3438394417971797</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4301975050874753</v>
+        <v>0.3147485716668406</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2311784521540671</v>
+        <v>0.3414119865359797</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2202491582266114</v>
+        <v>0.4182827112125116</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3332360592953933</v>
+        <v>0.3645742626201741</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2520923850716126</v>
+        <v>0.1588810503065659</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1271382429730002</v>
+        <v>0.04616012105937153</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04808990805593902</v>
+        <v>0.01005826421136035</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01455196612915153</v>
+        <v>0.001753352055821668</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003669510693346346</v>
+        <v>0.0002547029460097968</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0007931363427796409</v>
+        <v>3.171407288472837e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001500014980079467</v>
+        <v>3.455239251676265e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.521684909896667e-05</v>
+        <v>3.346198552076534e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.815298768561165e-06</v>
+        <v>2.916539070351863e-08</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.247755591096882e-07</v>
+        <v>0.4405812359782245</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.616526965047597e-08</v>
+        <v>0.361127006632012</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.700598267215545e-09</v>
+        <v>0.1480007593031525</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.32212365254726e-10</v>
+        <v>0.04043678881583446</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.394225622391069e-11</v>
+        <v>0.00828610895698407</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1774667223371851</v>
+        <v>0.001358359131032197</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3068350235666786</v>
+        <v>0.0001855655389074727</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2652546078703262</v>
+        <v>2.172867570881293e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1528726114304453</v>
+        <v>2.226266967367271e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0660781225815369</v>
+        <v>2.027536607040932e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02284944696395</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.00658434297365369</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.001626306534612129</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.0003514798417574916</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6.752209597918961e-05</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.16743824634806e-05</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.834971122848556e-06</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>2.643844999541446e-07</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>3.516257245550722e-08</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4.34250779363877e-09</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>5.005383408043602e-10</v>
+        <v>1.661891533151231e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1098,109 +958,79 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.3675913984295984</v>
+        <v>0.2309562949693299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3794002553417878</v>
+        <v>0.2538170952893412</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2530083462286138</v>
+        <v>0.5152266097413289</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2503695332626307</v>
+        <v>0.6719816668902676</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3467160659203735</v>
+        <v>0.2671289881491021</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2400692065060522</v>
+        <v>0.05309512135932695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1108173316773492</v>
+        <v>0.007035532239049844</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03836544005002788</v>
+        <v>0.0006991986168331989</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01062582516978714</v>
+        <v>5.558967699051959e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002452471121397532</v>
+        <v>3.683040499882613e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0004851749263314064</v>
+        <v>2.091568289777813e-07</v>
       </c>
       <c r="V5" t="n">
-        <v>8.398483011727718e-05</v>
+        <v>1.039311316852363e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.292262747955767e-05</v>
+        <v>4.590571342477128e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>1.789547834626843e-06</v>
+        <v>1.824863293394624e-11</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.252906213949587e-07</v>
+        <v>0.6507504779963333</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.599886286779135e-08</v>
+        <v>0.2795812774861103</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.769513506528717e-09</v>
+        <v>0.06005811241310055</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.739478764459823e-10</v>
+        <v>0.008600902270846367</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.52911842616137e-11</v>
+        <v>0.0009237992616695256</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2439389796102786</v>
+        <v>7.93781907048393e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3441581792873351</v>
+        <v>5.683862123345762e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2427755755960019</v>
+        <v>3.488502862094985e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1141722685539923</v>
+        <v>1.87345249768676e-08</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.04026962002282538</v>
+        <v>8.943216935648053e-10</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01136277533815217</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.002671837630785861</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.0005385039768269183</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>9.496767823854413e-05</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1.488710336309844e-05</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.100327875639944e-06</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2.693836939137628e-07</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>3.167137733077533e-08</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>3.43716587052152e-09</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3.463772403237656e-10</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3.25787923320957e-11</v>
+        <v>3.842265353999466e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1235,109 +1065,79 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.3774876594236305</v>
+        <v>0.3331575520183115</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3885568312933939</v>
+        <v>0.2848156989096562</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2339555092829756</v>
+        <v>0.3820267490720322</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2038004511593692</v>
+        <v>0.4762333625653291</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3241678395013518</v>
+        <v>0.353292428187265</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2578129429281767</v>
+        <v>0.1310445147543939</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1366936206946178</v>
+        <v>0.03240500593295493</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05435669479889965</v>
+        <v>0.006009891437365381</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0172921033443783</v>
+        <v>0.0008916843320725567</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004584176784768871</v>
+        <v>0.0001102489338271419</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001041665073960517</v>
+        <v>1.168398178544688e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0002071108740123323</v>
+        <v>1.083466274191902e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>3.660371602814832e-05</v>
+        <v>8.930739072176737e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>5.822238113343028e-06</v>
+        <v>6.625244555148889e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.419030119136799e-07</v>
+        <v>0.5161331348114935</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.11595222552738e-07</v>
+        <v>0.3413655694311303</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.365422439442413e-08</v>
+        <v>0.1128879780558945</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.551328551611296e-09</v>
+        <v>0.02488768001370669</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.645043217754674e-10</v>
+        <v>0.004115118990956496</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1985827751100701</v>
+        <v>0.0005443401490345246</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3210188386897211</v>
+        <v>6.000357026979836e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2594713834988385</v>
+        <v>5.669399051061165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.139816091229201</v>
+        <v>4.68710857932189e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.05650489979764885</v>
+        <v>3.444454715804045e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01826859082140046</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.004922012837159949</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.001136668031846593</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.0002296849836024756</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4.125523232183977e-05</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.669111539251545e-06</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.800861219692614e-07</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.320297914879135e-07</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.641789708343318e-08</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.895738530382808e-09</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.043036482378808e-10</v>
+        <v>2.278129742376707e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1372,109 +1172,79 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.349843485411959</v>
+        <v>0.360542632627991</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4288299535292143</v>
+        <v>0.2969559170602991</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2213265610588266</v>
+        <v>0.3425014503117099</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1900714871198825</v>
+        <v>0.4085389624074183</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3155861496203493</v>
+        <v>0.3657110018231298</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2619925253948816</v>
+        <v>0.163686391215117</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.145000202417759</v>
+        <v>0.04884227260589122</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06018795384382123</v>
+        <v>0.01093050974915687</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01998667437701331</v>
+        <v>0.001956928488409489</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005530829221094606</v>
+        <v>0.0002919632902637526</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001311877159289219</v>
+        <v>3.733659881500671e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0002722727299530728</v>
+        <v>4.177816014426866e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>5.022993295518237e-05</v>
+        <v>4.155385738120138e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>8.339952181789449e-06</v>
+        <v>3.719768298951039e-08</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.25884377741265e-06</v>
+        <v>0.4575114845339291</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.741772997741572e-07</v>
+        <v>0.3577526113562775</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.224585813228428e-08</v>
+        <v>0.1398729160456127</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.638287316956446e-09</v>
+        <v>0.03645802904402235</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.920329077467362e-10</v>
+        <v>0.00712711895565255</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1566850682782942</v>
+        <v>0.001114614825649228</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2904185039383084</v>
+        <v>0.0001452627886629811</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2691478784690596</v>
+        <v>1.622695939535247e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1662900940127049</v>
+        <v>1.586090539337356e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.07705539662074586</v>
+        <v>1.378054131431551e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.02856470403066491</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.008824196099413817</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.002336543030287163</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.0005413529019547641</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.0001114896706253833</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.066480469606051e-05</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3.482052321985164e-06</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>5.378370538100261e-07</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>7.668387306434158e-08</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1.015249248346912e-08</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.254521446828673e-09</v>
+        <v>1.077573964317354e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1509,109 +1279,79 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.4331218886241782</v>
+        <v>0.354331348698578</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3386504901564606</v>
+        <v>0.3493659875489841</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2282276212193612</v>
+        <v>0.296302663752438</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1703613613550542</v>
+        <v>0.341591246879682</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3015112347059126</v>
+        <v>0.3669169726622774</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2668123332978604</v>
+        <v>0.1970601794651227</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1574044634838335</v>
+        <v>0.0705567693767591</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06964492088426301</v>
+        <v>0.01894696984849084</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02465198202196307</v>
+        <v>0.00407034131081256</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007271650369415885</v>
+        <v>0.000728686368629148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001838515715563393</v>
+        <v>0.0001118159282224773</v>
       </c>
       <c r="V8" t="n">
-        <v>0.000406733324840047</v>
+        <v>1.501325131044152e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>7.998336007200464e-05</v>
+        <v>1.791815598634815e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>1.415572255317755e-05</v>
+        <v>1.924661597818116e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.277570107561284e-06</v>
+        <v>0.3449369976883371</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.359099787445771e-07</v>
+        <v>0.3671486961873351</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.573113186072798e-08</v>
+        <v>0.1953953417804359</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.781177610661424e-09</v>
+        <v>0.06932584351784023</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.821147649835492e-10</v>
+        <v>0.01844749420201356</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2133659389862156</v>
+        <v>0.003927078561930503</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3295963011187539</v>
+        <v>0.0006966594786394187</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2545713768264168</v>
+        <v>0.000105931402373334</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1310827532131955</v>
+        <v>1.409408693736529e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05062240815569311</v>
+        <v>1.666850493369769e-06</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01563975821175301</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.004026577126506959</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.0008885773115373356</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.0001715783436031894</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>2.944945074821658e-05</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.549193785432717e-06</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.388501335376575e-07</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>8.223846238989682e-08</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>9.772121707967075e-09</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1.078246530796458e-09</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1.110411749045539e-10</v>
+        <v>1.774184820652013e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1646,109 +1386,79 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4139715619503681</v>
+        <v>0.4157494087627379</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3717665489704334</v>
+        <v>0.2703048310601452</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2142618890791985</v>
+        <v>0.313945760177117</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1455867217294972</v>
+        <v>0.3372832161486785</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2805431879226751</v>
+        <v>0.3665702927384907</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2703010252406526</v>
+        <v>0.1992002167388447</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1736218578611762</v>
+        <v>0.07216574307820546</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08364160707583805</v>
+        <v>0.01960801508887365</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03223519674497508</v>
+        <v>0.004262124817963505</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01035278120458526</v>
+        <v>0.0007720358180725269</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002849948135475013</v>
+        <v>0.0001198676374230994</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0006864753236442055</v>
+        <v>1.628450247309652e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001469807238810204</v>
+        <v>1.966502581956813e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>2.832294068505661e-05</v>
+        <v>2.137258519324427e-07</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.961621360131546e-06</v>
+        <v>0.4431534082594519</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.967468101376786e-07</v>
+        <v>0.3606556484223194</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.181013717501786e-07</v>
+        <v>0.1467578656901251</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.625566973575122e-08</v>
+        <v>0.03981243833027943</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.088293655405897e-09</v>
+        <v>0.008100231485117026</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1619009862587845</v>
+        <v>0.001318457303582504</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2947845116174835</v>
+        <v>0.0001788353893099608</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2683674457382847</v>
+        <v>2.079189479319743e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.1628784939364945</v>
+        <v>2.115157572639894e-06</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.07414108214775562</v>
+        <v>1.912664783441217e-07</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.02699877647043303</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.008193095175039808</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.002131106368175271</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.0004850319047341273</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>9.81257443960958e-05</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.786644436660162e-05</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2.957335613043457e-06</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>4.487190774873512e-07</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>6.284726009547506e-08</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>8.173601877582449e-09</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>9.92150117310006e-10</v>
+        <v>1.556601720374591e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1783,109 +1493,79 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.3518434028065578</v>
+        <v>0.2845627109586757</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4113514957144775</v>
+        <v>0.2585627133475421</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2368051014789647</v>
+        <v>0.4568745756937822</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2244837111648789</v>
+        <v>0.5846246637171725</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3353679185552055</v>
+        <v>0.3138178893402763</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2505118082118724</v>
+        <v>0.08422640523222009</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1247508831970591</v>
+        <v>0.01507049699695938</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04659296193320736</v>
+        <v>0.002022405079878196</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01392153094919645</v>
+        <v>0.0002171194384865929</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003466350136873787</v>
+        <v>1.942441824907655e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0007397944531441364</v>
+        <v>1.489534425100798e-06</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001381521874249755</v>
+        <v>9.994501138831366e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>2.293252830394201e-05</v>
+        <v>5.961000748858047e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>3.426009951720991e-06</v>
+        <v>3.199777206572701e-10</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.652995333141408e-07</v>
+        <v>0.6078809171397288</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.792793575924509e-08</v>
+        <v>0.3025886992865455</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.657043310957433e-09</v>
+        <v>0.07531073797047429</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.103788597980683e-10</v>
+        <v>0.01249596623410015</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.07514674033867e-11</v>
+        <v>0.001555048884778455</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1955634343227336</v>
+        <v>0.0001548132886244053</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3191341954284017</v>
+        <v>1.284373038542665e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.260392836330687</v>
+        <v>9.133291833350518e-07</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1416424609326079</v>
+        <v>5.682919997434918e-08</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.05778553767575652</v>
+        <v>3.143136393417556e-09</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01885970262019111</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.005129431994412756</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.001195795521511416</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.0002439229264509735</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>4.422784700641403e-05</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7.217411792139697e-06</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.070716476837914e-06</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.456058842454238e-07</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1.827768801590349e-08</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>2.130487108202948e-09</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.317786013189928e-10</v>
+        <v>1.564578729399073e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1920,109 +1600,79 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.395336242424134</v>
+        <v>0.4430050436679024</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3594635702719875</v>
+        <v>0.2308110152491709</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2452001873038785</v>
+        <v>0.3261839410829268</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2198791809834358</v>
+        <v>0.3449668433541553</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3330459515898976</v>
+        <v>0.3671506167628781</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2522285315379093</v>
+        <v>0.1953804807422778</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1273482569358454</v>
+        <v>0.06931493600029857</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04822287087938138</v>
+        <v>0.01844309242588726</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01460841526568196</v>
+        <v>0.003925822373733188</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003687838583003415</v>
+        <v>0.0006963800210492918</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0007979835008174903</v>
+        <v>0.0001058803017305417</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001510859129512241</v>
+        <v>1.408614292660389e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.542737406243496e-05</v>
+        <v>1.665775570720957e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>3.851426020953704e-06</v>
+        <v>1.772896555020081e-07</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.303333314023482e-07</v>
+        <v>0.5075969644779751</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.694031097243113e-08</v>
+        <v>0.3441850165410307</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.799457959602211e-09</v>
+        <v>0.1166903408624401</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.438328613088939e-10</v>
+        <v>0.02637464347409441</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.520895187999244e-11</v>
+        <v>0.00447094729463697</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2384192310523356</v>
+        <v>0.0006063208317808901</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3418275357173942</v>
+        <v>6.85210774557118e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2450432871100432</v>
+        <v>6.637416754946699e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1171082027894094</v>
+        <v>5.625770925217416e-07</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04197523013884891</v>
+        <v>4.238502842163265e-08</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01203618467872973</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.002876095837578428</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.0005890756548617284</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.000105571538086358</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1.681783551634971e-05</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.411214584192816e-06</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>3.142743507127524e-07</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3.754857440580612e-08</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>4.14110137075843e-09</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>4.24085659795365e-10</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>4.053480512207899e-11</v>
+        <v>2.873991124709469e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2081,16 +1731,6 @@
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2148,16 +1788,6 @@
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2215,16 +1845,6 @@
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2282,16 +1902,6 @@
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2349,16 +1959,6 @@
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2416,16 +2016,6 @@
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2483,16 +2073,6 @@
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2550,16 +2130,6 @@
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2617,16 +2187,6 @@
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2684,16 +2244,6 @@
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2751,16 +2301,6 @@
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2818,16 +2358,6 @@
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2885,16 +2415,6 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2952,16 +2472,6 @@
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3019,16 +2529,6 @@
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3086,16 +2586,6 @@
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3153,16 +2643,6 @@
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3220,16 +2700,6 @@
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3287,16 +2757,6 @@
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3354,16 +2814,6 @@
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3421,16 +2871,6 @@
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3488,16 +2928,6 @@
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3555,16 +2985,6 @@
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3622,16 +3042,6 @@
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3689,16 +3099,6 @@
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3756,16 +3156,6 @@
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3823,16 +3213,6 @@
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3890,16 +3270,6 @@
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3957,16 +3327,6 @@
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4024,16 +3384,6 @@
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4091,16 +3441,6 @@
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4158,16 +3498,6 @@
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4225,16 +3555,6 @@
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4292,16 +3612,6 @@
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4359,16 +3669,6 @@
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4426,16 +3726,6 @@
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4493,16 +3783,6 @@
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4560,16 +3840,6 @@
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4627,16 +3897,6 @@
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4694,16 +3954,6 @@
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4761,16 +4011,6 @@
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4828,16 +4068,6 @@
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4895,16 +4125,6 @@
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4962,16 +4182,6 @@
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5029,16 +4239,6 @@
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5096,16 +4296,6 @@
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5163,16 +4353,6 @@
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5230,16 +4410,6 @@
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5297,16 +4467,6 @@
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5364,16 +4524,6 @@
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5431,16 +4581,6 @@
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
-      <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5498,16 +4638,6 @@
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
-      <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5565,16 +4695,6 @@
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-      <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
-      <c r="AN64" t="inlineStr"/>
-      <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5632,16 +4752,6 @@
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
-      <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5699,16 +4809,6 @@
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5766,16 +4866,6 @@
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5833,16 +4923,6 @@
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5900,16 +4980,6 @@
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
-      <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr"/>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
-      <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5967,16 +5037,6 @@
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="inlineStr"/>
-      <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
-      <c r="AN70" t="inlineStr"/>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6034,16 +5094,6 @@
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6101,16 +5151,6 @@
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6168,16 +5208,6 @@
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6235,16 +5265,6 @@
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="inlineStr"/>
-      <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6302,16 +5322,6 @@
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
-      <c r="AK75" t="inlineStr"/>
-      <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="inlineStr"/>
-      <c r="AO75" t="inlineStr"/>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6369,16 +5379,6 @@
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="inlineStr"/>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6436,16 +5436,6 @@
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6503,16 +5493,6 @@
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6570,16 +5550,6 @@
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6637,16 +5607,6 @@
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr"/>
-      <c r="AK80" t="inlineStr"/>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
-      <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="inlineStr"/>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6704,16 +5664,6 @@
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6771,16 +5721,6 @@
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr"/>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
-      <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr"/>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6838,16 +5778,6 @@
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="inlineStr"/>
-      <c r="AK83" t="inlineStr"/>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6905,16 +5835,6 @@
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="inlineStr"/>
-      <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6972,16 +5892,6 @@
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
       <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
-      <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7039,16 +5949,6 @@
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7106,16 +6006,6 @@
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
       <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="inlineStr"/>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
-      <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7173,16 +6063,6 @@
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
       <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7240,16 +6120,6 @@
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="inlineStr"/>
-      <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
-      <c r="AN89" t="inlineStr"/>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7307,16 +6177,6 @@
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7374,16 +6234,6 @@
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
       <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="inlineStr"/>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7441,16 +6291,6 @@
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
-      <c r="AJ92" t="inlineStr"/>
-      <c r="AK92" t="inlineStr"/>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
-      <c r="AO92" t="inlineStr"/>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7508,16 +6348,6 @@
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="inlineStr"/>
-      <c r="AJ93" t="inlineStr"/>
-      <c r="AK93" t="inlineStr"/>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7575,16 +6405,6 @@
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
       <c r="AI94" t="inlineStr"/>
-      <c r="AJ94" t="inlineStr"/>
-      <c r="AK94" t="inlineStr"/>
-      <c r="AL94" t="inlineStr"/>
-      <c r="AM94" t="inlineStr"/>
-      <c r="AN94" t="inlineStr"/>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7642,16 +6462,6 @@
       <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="inlineStr"/>
-      <c r="AK95" t="inlineStr"/>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7709,16 +6519,6 @@
       <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
       <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="inlineStr"/>
-      <c r="AK96" t="inlineStr"/>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7776,16 +6576,6 @@
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="inlineStr"/>
-      <c r="AK97" t="inlineStr"/>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7843,16 +6633,6 @@
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
       <c r="AI98" t="inlineStr"/>
-      <c r="AJ98" t="inlineStr"/>
-      <c r="AK98" t="inlineStr"/>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr"/>
-      <c r="AN98" t="inlineStr"/>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7910,16 +6690,6 @@
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7977,16 +6747,6 @@
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
-      <c r="AN100" t="inlineStr"/>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8044,16 +6804,6 @@
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr"/>
       <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="inlineStr"/>
-      <c r="AK101" t="inlineStr"/>
-      <c r="AL101" t="inlineStr"/>
-      <c r="AM101" t="inlineStr"/>
-      <c r="AN101" t="inlineStr"/>
-      <c r="AO101" t="inlineStr"/>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8111,16 +6861,6 @@
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
-      <c r="AK102" t="inlineStr"/>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="inlineStr"/>
-      <c r="AO102" t="inlineStr"/>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8178,16 +6918,6 @@
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
       <c r="AI103" t="inlineStr"/>
-      <c r="AJ103" t="inlineStr"/>
-      <c r="AK103" t="inlineStr"/>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
-      <c r="AN103" t="inlineStr"/>
-      <c r="AO103" t="inlineStr"/>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8245,16 +6975,6 @@
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
       <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="inlineStr"/>
-      <c r="AK104" t="inlineStr"/>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
-      <c r="AN104" t="inlineStr"/>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8312,16 +7032,6 @@
       <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
-      <c r="AK105" t="inlineStr"/>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8379,16 +7089,6 @@
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
       <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="inlineStr"/>
-      <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8446,16 +7146,6 @@
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
-      <c r="AK107" t="inlineStr"/>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
-      <c r="AN107" t="inlineStr"/>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8513,16 +7203,6 @@
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="inlineStr"/>
-      <c r="AK108" t="inlineStr"/>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8580,16 +7260,6 @@
       <c r="AG109" t="inlineStr"/>
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="inlineStr"/>
-      <c r="AK109" t="inlineStr"/>
-      <c r="AL109" t="inlineStr"/>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8647,16 +7317,6 @@
       <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
-      <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8714,16 +7374,6 @@
       <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8781,16 +7431,6 @@
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
       <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8848,16 +7488,6 @@
       <c r="AG113" t="inlineStr"/>
       <c r="AH113" t="inlineStr"/>
       <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
-      <c r="AK113" t="inlineStr"/>
-      <c r="AL113" t="inlineStr"/>
-      <c r="AM113" t="inlineStr"/>
-      <c r="AN113" t="inlineStr"/>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8915,16 +7545,6 @@
       <c r="AG114" t="inlineStr"/>
       <c r="AH114" t="inlineStr"/>
       <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
-      <c r="AK114" t="inlineStr"/>
-      <c r="AL114" t="inlineStr"/>
-      <c r="AM114" t="inlineStr"/>
-      <c r="AN114" t="inlineStr"/>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8982,16 +7602,6 @@
       <c r="AG115" t="inlineStr"/>
       <c r="AH115" t="inlineStr"/>
       <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="inlineStr"/>
-      <c r="AK115" t="inlineStr"/>
-      <c r="AL115" t="inlineStr"/>
-      <c r="AM115" t="inlineStr"/>
-      <c r="AN115" t="inlineStr"/>
-      <c r="AO115" t="inlineStr"/>
-      <c r="AP115" t="inlineStr"/>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9049,16 +7659,6 @@
       <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr"/>
       <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="inlineStr"/>
-      <c r="AK116" t="inlineStr"/>
-      <c r="AL116" t="inlineStr"/>
-      <c r="AM116" t="inlineStr"/>
-      <c r="AN116" t="inlineStr"/>
-      <c r="AO116" t="inlineStr"/>
-      <c r="AP116" t="inlineStr"/>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9116,16 +7716,6 @@
       <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="inlineStr"/>
       <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="inlineStr"/>
-      <c r="AK117" t="inlineStr"/>
-      <c r="AL117" t="inlineStr"/>
-      <c r="AM117" t="inlineStr"/>
-      <c r="AN117" t="inlineStr"/>
-      <c r="AO117" t="inlineStr"/>
-      <c r="AP117" t="inlineStr"/>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9183,16 +7773,6 @@
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
-      <c r="AK118" t="inlineStr"/>
-      <c r="AL118" t="inlineStr"/>
-      <c r="AM118" t="inlineStr"/>
-      <c r="AN118" t="inlineStr"/>
-      <c r="AO118" t="inlineStr"/>
-      <c r="AP118" t="inlineStr"/>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9250,16 +7830,6 @@
       <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
       <c r="AI119" t="inlineStr"/>
-      <c r="AJ119" t="inlineStr"/>
-      <c r="AK119" t="inlineStr"/>
-      <c r="AL119" t="inlineStr"/>
-      <c r="AM119" t="inlineStr"/>
-      <c r="AN119" t="inlineStr"/>
-      <c r="AO119" t="inlineStr"/>
-      <c r="AP119" t="inlineStr"/>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9317,16 +7887,6 @@
       <c r="AG120" t="inlineStr"/>
       <c r="AH120" t="inlineStr"/>
       <c r="AI120" t="inlineStr"/>
-      <c r="AJ120" t="inlineStr"/>
-      <c r="AK120" t="inlineStr"/>
-      <c r="AL120" t="inlineStr"/>
-      <c r="AM120" t="inlineStr"/>
-      <c r="AN120" t="inlineStr"/>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -9384,16 +7944,6 @@
       <c r="AG121" t="inlineStr"/>
       <c r="AH121" t="inlineStr"/>
       <c r="AI121" t="inlineStr"/>
-      <c r="AJ121" t="inlineStr"/>
-      <c r="AK121" t="inlineStr"/>
-      <c r="AL121" t="inlineStr"/>
-      <c r="AM121" t="inlineStr"/>
-      <c r="AN121" t="inlineStr"/>
-      <c r="AO121" t="inlineStr"/>
-      <c r="AP121" t="inlineStr"/>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados/previsoes/todas_previsoes.xlsx
+++ b/dados/previsoes/todas_previsoes.xlsx
@@ -637,79 +637,79 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4257577556941294</v>
+        <v>0.4521750812001323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2252467689942394</v>
+        <v>0.2182850435588121</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3489954753116311</v>
+        <v>0.3295398752410555</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3829934407644668</v>
+        <v>0.3466457255815812</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3675731351419106</v>
+        <v>0.3672545018219311</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1763868454357463</v>
+        <v>0.194544255352043</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05642835174513351</v>
+        <v>0.06870343245664166</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01353910012169428</v>
+        <v>0.01819699696137064</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002598796192852769</v>
+        <v>0.003855768907861855</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004156936570919897</v>
+        <v>0.0006808336700827793</v>
       </c>
       <c r="U2" t="n">
-        <v>5.699382232273063e-05</v>
+        <v>0.00010304436896544</v>
       </c>
       <c r="V2" t="n">
-        <v>6.837387969710222e-06</v>
+        <v>1.36463201466232e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>7.291218957203923e-07</v>
+        <v>1.606402328660673e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.997655640671266e-08</v>
+        <v>1.701906134708766e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5435519488725162</v>
+        <v>0.5286472883306726</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3313655718116477</v>
+        <v>0.3369776610885147</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1010051959245327</v>
+        <v>0.1074004790899987</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02052526569165775</v>
+        <v>0.02282023259642992</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.003128204404661857</v>
+        <v>0.003636597016379068</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0003814094470435276</v>
+        <v>0.0004636179864917268</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.875310654179542e-05</v>
+        <v>4.925429745412991e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.375008020415296e-06</v>
+        <v>4.485193576950357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.571882652784185e-07</v>
+        <v>3.573767600942844e-07</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.742107564961403e-08</v>
+        <v>2.531155931212089e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.062041025918986e-09</v>
+        <v>1.613444397385516e-09</v>
       </c>
     </row>
     <row r="3">
@@ -744,79 +744,79 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3778335199214127</v>
+        <v>0.3845876918323635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.287346277794003</v>
+        <v>0.2950264594513652</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3348202022845843</v>
+        <v>0.3203858487162712</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3873615818836125</v>
+        <v>0.3623931423093775</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3673724467573583</v>
+        <v>0.3678383268481212</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1742074084634433</v>
+        <v>0.1866826643520126</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05507257721951287</v>
+        <v>0.06316256287227649</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01305766265202636</v>
+        <v>0.0160279050110603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002476768839119636</v>
+        <v>0.003253746869810169</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003914932331248206</v>
+        <v>0.0005504394099693543</v>
       </c>
       <c r="U3" t="n">
-        <v>5.304155588121717e-05</v>
+        <v>7.98157296812762e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>6.288054583635354e-06</v>
+        <v>1.012687639279963e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>6.626189143776466e-07</v>
+        <v>1.1421154522305e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>6.284255931084067e-08</v>
+        <v>1.159276454125608e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4560867710515426</v>
+        <v>0.4279954029771235</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3580610448207695</v>
+        <v>0.3632152275124333</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1405518861274451</v>
+        <v>0.1541199982280652</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03678112616033716</v>
+        <v>0.04359761018555817</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.007218959909915109</v>
+        <v>0.009249699758686595</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001133480947892409</v>
+        <v>0.001569938265179276</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001483107302699811</v>
+        <v>0.0002220528071879175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.663351876040252e-05</v>
+        <v>2.692050305798155e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.632314146238009e-06</v>
+        <v>2.855736467885776e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.423871620184538e-07</v>
+        <v>2.692778067977225e-07</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.117842025626965e-08</v>
+        <v>2.285206784459594e-08</v>
       </c>
     </row>
     <row r="4">
@@ -851,79 +851,79 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.3438394417971797</v>
+        <v>0.3539551742724434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3147485716668406</v>
+        <v>0.3138712729844169</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3414119865359797</v>
+        <v>0.3321735527431396</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4182827112125116</v>
+        <v>0.3983872913630873</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3645742626201741</v>
+        <v>0.3666480359949493</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1588810503065659</v>
+        <v>0.1687187131886122</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04616012105937153</v>
+        <v>0.05175900115901763</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01005826421136035</v>
+        <v>0.01190884883343223</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001753352055821668</v>
+        <v>0.002192015724597603</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0002547029460097968</v>
+        <v>0.0003362298771897284</v>
       </c>
       <c r="U4" t="n">
-        <v>3.171407288472837e-05</v>
+        <v>4.420609463169783e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>3.455239251676265e-06</v>
+        <v>5.085527992202865e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.346198552076534e-07</v>
+        <v>5.200408108620944e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>2.916539070351863e-08</v>
+        <v>4.786094990315111e-08</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4405812359782245</v>
+        <v>0.4284845778066694</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.361127006632012</v>
+        <v>0.3631409079484386</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1480007593031525</v>
+        <v>0.1538810564672367</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04043678881583446</v>
+        <v>0.04347142577656582</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.00828610895698407</v>
+        <v>0.009210514125807099</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001358359131032197</v>
+        <v>0.001561183125627747</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0001855655389074727</v>
+        <v>0.000220517255104118</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.172867570881293e-05</v>
+        <v>2.669835588172998e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.226266967367271e-06</v>
+        <v>2.828358854025202e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.027536607040932e-07</v>
+        <v>2.663372928307299e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.661891533151231e-08</v>
+        <v>2.257209975541268e-08</v>
       </c>
     </row>
     <row r="5">
@@ -958,79 +958,79 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.2309562949693299</v>
+        <v>0.239200242931476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2538170952893412</v>
+        <v>0.2627090834260704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5152266097413289</v>
+        <v>0.4980906736424536</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6719816668902676</v>
+        <v>0.6540368018998309</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2671289881491021</v>
+        <v>0.2776985695165318</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05309512135932695</v>
+        <v>0.05895424790128158</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.007035532239049844</v>
+        <v>0.008343827269634422</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0006991986168331989</v>
+        <v>0.0008856798617218255</v>
       </c>
       <c r="S5" t="n">
-        <v>5.558967699051959e-05</v>
+        <v>7.521045602795291e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>3.683040499882613e-06</v>
+        <v>5.322288692567914e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>2.091568289777813e-07</v>
+        <v>3.228284822127281e-07</v>
       </c>
       <c r="V5" t="n">
-        <v>1.039311316852363e-08</v>
+        <v>1.713378502732131e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>4.590571342477128e-10</v>
+        <v>8.083180196639126e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>1.824863293394624e-11</v>
+        <v>3.432050874248556e-11</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6507504779963333</v>
+        <v>0.632409420425636</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2795812774861103</v>
+        <v>0.2897815552699849</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.06005811241310055</v>
+        <v>0.06639160254615911</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.008600902270846367</v>
+        <v>0.0101406152519276</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0009237992616695256</v>
+        <v>0.001161653813252948</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.93781907048393e-05</v>
+        <v>0.0001064582018601765</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.683862123345762e-06</v>
+        <v>8.130182312782155e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.488502862094985e-07</v>
+        <v>5.321997335299639e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.87345249768676e-08</v>
+        <v>3.048295564461773e-08</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.943216935648053e-10</v>
+        <v>1.551983047448051e-09</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.842265353999466e-11</v>
+        <v>7.111469986317675e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1065,79 +1065,79 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.3331575520183115</v>
+        <v>0.3545664405671235</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2848156989096562</v>
+        <v>0.2726467705523286</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3820267490720322</v>
+        <v>0.3727867888805479</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4762333625653291</v>
+        <v>0.4507792501088693</v>
       </c>
       <c r="O6" t="n">
-        <v>0.353292428187265</v>
+        <v>0.3591707760866406</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1310445147543939</v>
+        <v>0.1430896013553458</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03240500593295493</v>
+        <v>0.03800352623175336</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006009891437365381</v>
+        <v>0.00757008891125271</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0008916843320725567</v>
+        <v>0.001206335344247919</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001102489338271419</v>
+        <v>0.0001601968153701348</v>
       </c>
       <c r="U6" t="n">
-        <v>1.168398178544688e-05</v>
+        <v>1.823446033862579e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.083466274191902e-06</v>
+        <v>1.816101026656492e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>8.930739072176737e-08</v>
+        <v>1.607809427387058e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>6.625244555148889e-09</v>
+        <v>1.281066419305143e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5161331348114935</v>
+        <v>0.5176234817746184</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3413655694311303</v>
+        <v>0.3408587742026879</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1128879780558945</v>
+        <v>0.1122289734158039</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02488768001370669</v>
+        <v>0.02463452789879001</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004115118990956496</v>
+        <v>0.004055503313844839</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0005443401490345246</v>
+        <v>0.0005341156021720017</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.000357026979836e-05</v>
+        <v>5.861982562264232e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.669399051061165e-06</v>
+        <v>5.514510783896466e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.68710857932189e-07</v>
+        <v>4.53918111404597e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.444454715804045e-08</v>
+        <v>3.321203678166524e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.278129742376707e-09</v>
+        <v>2.187036435704469e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1172,79 +1172,79 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.360542632627991</v>
+        <v>0.3796848048152709</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2969559170602991</v>
+        <v>0.2873284766981595</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3425014503117099</v>
+        <v>0.3329867184865696</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4085389624074183</v>
+        <v>0.3836963087845934</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3657110018231298</v>
+        <v>0.3675441913030268</v>
       </c>
       <c r="P7" t="n">
-        <v>0.163686391215117</v>
+        <v>0.1760360074722983</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04884227260589122</v>
+        <v>0.05620852614017241</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01093050974915687</v>
+        <v>0.01346059162646435</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001956928488409489</v>
+        <v>0.002578790647989568</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002919632902637526</v>
+        <v>0.0004117056039525427</v>
       </c>
       <c r="U7" t="n">
-        <v>3.733659881500671e-05</v>
+        <v>5.633920063313559e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>4.177816014426866e-06</v>
+        <v>6.745942514067076e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.155385738120138e-07</v>
+        <v>7.179960728616079e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>3.719768298951039e-08</v>
+        <v>6.877712396936787e-08</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4575114845339291</v>
+        <v>0.4535607564536389</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3577526113562775</v>
+        <v>0.3585969475256731</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1398729160456127</v>
+        <v>0.1417580433767912</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03645802904402235</v>
+        <v>0.03735920044435127</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.00712711895565255</v>
+        <v>0.00738428923287674</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001114614825649228</v>
+        <v>0.001167642279839507</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001452627886629811</v>
+        <v>0.000153861399821512</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.622695939535247e-05</v>
+        <v>1.737811859758168e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.586090539337356e-06</v>
+        <v>1.717449149359139e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.378054131431551e-07</v>
+        <v>1.508733366974824e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.077573964317354e-08</v>
+        <v>1.192843896499243e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1279,79 +1279,79 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.354331348698578</v>
+        <v>0.3616814056291752</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3493659875489841</v>
+        <v>0.3521170824501733</v>
       </c>
       <c r="M8" t="n">
-        <v>0.296302663752438</v>
+        <v>0.2862015119206516</v>
       </c>
       <c r="N8" t="n">
-        <v>0.341591246879682</v>
+        <v>0.3189797147798517</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3669169726622774</v>
+        <v>0.3644750796162543</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1970601794651227</v>
+        <v>0.2082296734025199</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0705567693767591</v>
+        <v>0.07930966900118792</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01894696984849084</v>
+        <v>0.02265535752288894</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00407034131081256</v>
+        <v>0.00517732812106159</v>
       </c>
       <c r="T8" t="n">
-        <v>0.000728686368629148</v>
+        <v>0.0009859598127453235</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0001118159282224773</v>
+        <v>0.0001609407229174854</v>
       </c>
       <c r="V8" t="n">
-        <v>1.501325131044152e-05</v>
+        <v>2.298691738098939e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.791815598634815e-06</v>
+        <v>2.918387789556768e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>1.924661597818116e-07</v>
+        <v>3.334630926872322e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3449369976883371</v>
+        <v>0.3251758471929345</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3671486961873351</v>
+        <v>0.3652990266075544</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1953953417804359</v>
+        <v>0.2051864860080638</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06932584351784023</v>
+        <v>0.0768347590581229</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01844749420201356</v>
+        <v>0.02157883414147381</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003927078561930503</v>
+        <v>0.004848285735397341</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0006966594786394187</v>
+        <v>0.0009077519518257859</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.000105931402373334</v>
+        <v>0.0001456798165694024</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.409408693736529e-05</v>
+        <v>2.045689111313172e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.666850493369769e-06</v>
+        <v>2.553450002703005e-06</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.774184820652013e-07</v>
+        <v>2.868518091151548e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1386,79 +1386,79 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4157494087627379</v>
+        <v>0.4409989143931614</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2703048310601452</v>
+        <v>0.2572798120459002</v>
       </c>
       <c r="M9" t="n">
-        <v>0.313945760177117</v>
+        <v>0.3017212735609385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3372832161486785</v>
+        <v>0.3081379071435262</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3665702927384907</v>
+        <v>0.3627423618632366</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1992002167388447</v>
+        <v>0.2135115771861692</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07216574307820546</v>
+        <v>0.08378250127421116</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01960801508887365</v>
+        <v>0.02465735445920087</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004262124817963505</v>
+        <v>0.005805366224976283</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0007720358180725269</v>
+        <v>0.00113902044458516</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001198676374230994</v>
+        <v>0.0001915519719769429</v>
       </c>
       <c r="V9" t="n">
-        <v>1.628450247309652e-05</v>
+        <v>2.818706053508703e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.966502581956813e-06</v>
+        <v>3.686892090068483e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>2.137258519324427e-07</v>
+        <v>4.340238294872911e-07</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4431534082594519</v>
+        <v>0.4385865675811311</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3606556484223194</v>
+        <v>0.3614822021499419</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1467578656901251</v>
+        <v>0.1489664665197479</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03981243833027943</v>
+        <v>0.0409259580239295</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008100231485117026</v>
+        <v>0.008432773895229631</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001318457303582504</v>
+        <v>0.001390055192384007</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001788353893099608</v>
+        <v>0.0001909468009262055</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.079189479319743e-05</v>
+        <v>2.248256923304721e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.115157572639894e-06</v>
+        <v>2.316261268890512e-06</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.912664783441217e-07</v>
+        <v>2.121175628263522e-07</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.556601720374591e-08</v>
+        <v>1.748268857115975e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1493,79 +1493,79 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.2845627109586757</v>
+        <v>0.2970588986802594</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2585627133475421</v>
+        <v>0.2554745291702621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4568745756937822</v>
+        <v>0.4474665721494785</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5846246637171725</v>
+        <v>0.5667810777258052</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3138178893402763</v>
+        <v>0.3218081823570839</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08422640523222009</v>
+        <v>0.091358471817288</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01507049699695938</v>
+        <v>0.01729057003597033</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002022405079878196</v>
+        <v>0.002454319283875828</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0002171194384865929</v>
+        <v>0.0002787037389593715</v>
       </c>
       <c r="T10" t="n">
-        <v>1.942441824907655e-05</v>
+        <v>2.637383497067154e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.489534425100798e-06</v>
+        <v>2.139227554957664e-06</v>
       </c>
       <c r="V10" t="n">
-        <v>9.994501138831366e-08</v>
+        <v>1.518269041971605e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>5.961000748858047e-09</v>
+        <v>9.578289669058688e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>3.199777206572701e-10</v>
+        <v>5.438381960204733e-10</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6078809171397288</v>
+        <v>0.6037075889050818</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3025886992865455</v>
+        <v>0.3046702851124669</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07531073797047429</v>
+        <v>0.07687826386186623</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01249596623410015</v>
+        <v>0.01293259794432746</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001555048884778455</v>
+        <v>0.001631658428416181</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0001548132886244053</v>
+        <v>0.0001646882854308056</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.284373038542665e-05</v>
+        <v>1.385207778263651e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.133291833350518e-07</v>
+        <v>9.986661861273743e-07</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.682919997434918e-08</v>
+        <v>6.299902412429436e-08</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.143136393417556e-09</v>
+        <v>3.532602537037878e-09</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.564578729399073e-10</v>
+        <v>1.782781998981249e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1600,79 +1600,79 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.4430050436679024</v>
+        <v>0.4522075285292043</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2308110152491709</v>
+        <v>0.2280802241781236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3261839410829268</v>
+        <v>0.3197122472926721</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3449668433541553</v>
+        <v>0.3323999097046004</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3671506167628781</v>
+        <v>0.3661107410412505</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1953804807422778</v>
+        <v>0.2016202032438737</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06931493600029857</v>
+        <v>0.07402260536522701</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01844309242588726</v>
+        <v>0.02038242950197485</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003925822373733188</v>
+        <v>0.004489908782358364</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0006963800210492918</v>
+        <v>0.0008242099268206117</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001058803017305417</v>
+        <v>0.0001296854860975881</v>
       </c>
       <c r="V11" t="n">
-        <v>1.408614292660389e-05</v>
+        <v>1.785471657456113e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.665775570720957e-06</v>
+        <v>2.185053246388684e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>1.772896555020081e-07</v>
+        <v>2.406653671960603e-07</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5075969644779751</v>
+        <v>0.5022497693292466</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3441850165410307</v>
+        <v>0.3458781883305505</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1166903408624401</v>
+        <v>0.1190958448050575</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02637464347409441</v>
+        <v>0.02733875822639826</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.00447094729463697</v>
+        <v>0.004706761826482207</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0006063208317808901</v>
+        <v>0.0006482695873095985</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.85210774557118e-05</v>
+        <v>7.44059775636751e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.637416754946699e-06</v>
+        <v>7.32003599240988e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.625770925217416e-07</v>
+        <v>6.301249254306322e-07</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.238502842163265e-08</v>
+        <v>4.82156004042322e-08</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.873991124709469e-09</v>
+        <v>3.320404614492377e-09</v>
       </c>
     </row>
     <row r="12">

--- a/dados/previsoes/todas_previsoes.xlsx
+++ b/dados/previsoes/todas_previsoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2DE86-D510-48AB-8FA2-4E331CC0300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BFC8A-30ED-4510-9E9C-EC29B0F5001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1665" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,33 +206,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -532,15 +529,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -614,14 +607,14 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>0.63592745706669263</v>
-      </c>
-      <c r="L2">
-        <v>0.20633256130104691</v>
-      </c>
-      <c r="M2">
-        <v>0.15657665527576811</v>
+      <c r="K2" s="2">
+        <v>0.56462473530604862</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.2538748222225663</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.18084055094663659</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -658,14 +651,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>0.39143773266772808</v>
-      </c>
-      <c r="L3">
-        <v>0.31901283481482789</v>
-      </c>
-      <c r="M3">
-        <v>0.28953374123456938</v>
+      <c r="K3" s="2">
+        <v>0.39028152267955518</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.3357595199833372</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.2739278497661724</v>
       </c>
       <c r="N3" t="s">
         <v>17</v>
@@ -702,14 +695,14 @@
       <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4">
-        <v>0.14415256230892901</v>
-      </c>
-      <c r="L4">
-        <v>0.29249285091186689</v>
-      </c>
-      <c r="M4">
-        <v>0.56329207483690735</v>
+      <c r="K4" s="2">
+        <v>0.112731984314134</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.28097259270012531</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.60610441324209863</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
@@ -746,14 +739,14 @@
       <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="K5">
-        <v>0.12837877351447591</v>
-      </c>
-      <c r="L5">
-        <v>0.34466771286350201</v>
-      </c>
-      <c r="M5">
-        <v>0.526938789987345</v>
+      <c r="K5" s="2">
+        <v>0.12856614296477459</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.36915894027936952</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.50226025728347901</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -790,14 +783,14 @@
       <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="K6">
-        <v>0.51406056263627598</v>
-      </c>
-      <c r="L6">
-        <v>0.29762419965921488</v>
-      </c>
-      <c r="M6">
-        <v>0.18826433795360881</v>
+      <c r="K6" s="2">
+        <v>0.438726054911657</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.35147702388873858</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.20977491384948219</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -834,14 +827,14 @@
       <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7">
-        <v>0.24539017541414929</v>
-      </c>
-      <c r="L7">
-        <v>0.27174472632188412</v>
-      </c>
-      <c r="M7">
-        <v>0.48275167184932688</v>
+      <c r="K7" s="2">
+        <v>0.29432823343978798</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.28675887878140133</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.41871228490997392</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -878,14 +871,14 @@
       <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="K8">
-        <v>0.66437863459545643</v>
-      </c>
-      <c r="L8">
-        <v>0.23271162727320691</v>
-      </c>
-      <c r="M8">
-        <v>0.1025868749600346</v>
+      <c r="K8" s="2">
+        <v>0.60677955613093004</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.27332809235493999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.1196383808494936</v>
       </c>
       <c r="N8" t="s">
         <v>12</v>
@@ -922,17 +915,17 @@
       <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="K9">
-        <v>0.35305100465052669</v>
-      </c>
-      <c r="L9">
-        <v>0.33742905036548582</v>
-      </c>
-      <c r="M9">
-        <v>0.3095126161835669</v>
+      <c r="K9" s="2">
+        <v>0.30974276772947051</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.35826606981383108</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.33197928522331732</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -966,14 +959,14 @@
       <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="K10">
-        <v>0.37316955228242588</v>
-      </c>
-      <c r="L10">
-        <v>0.3449767576033429</v>
-      </c>
-      <c r="M10">
-        <v>0.28184742459149192</v>
+      <c r="K10" s="2">
+        <v>0.42320375665229037</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.33800136758022797</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.23876252692348321</v>
       </c>
       <c r="N10" t="s">
         <v>12</v>
@@ -1010,14 +1003,14 @@
       <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="K11">
-        <v>0.57310657429493017</v>
-      </c>
-      <c r="L11">
-        <v>0.24886826004590371</v>
-      </c>
-      <c r="M11">
-        <v>0.1777592114954879</v>
+      <c r="K11" s="2">
+        <v>0.50985389427857097</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.31448975344922392</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.17557395197712591</v>
       </c>
       <c r="N11" t="s">
         <v>17</v>
@@ -1054,14 +1047,14 @@
       <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="K12">
-        <v>0.45515061822936681</v>
-      </c>
-      <c r="L12">
-        <v>0.32165895102002101</v>
-      </c>
-      <c r="M12">
-        <v>0.2231703056620811</v>
+      <c r="K12" s="2">
+        <v>0.48379746084827918</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.32108740791471169</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.1950495154126233</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
@@ -1098,14 +1091,14 @@
       <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13">
-        <v>0.42277843857739711</v>
-      </c>
-      <c r="L13">
-        <v>0.24490826914132599</v>
-      </c>
-      <c r="M13">
-        <v>0.33199776426486211</v>
+      <c r="K13" s="2">
+        <v>0.40740944703959708</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.28658976990869478</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.30580226094716528</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
@@ -1142,14 +1135,14 @@
       <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0.60088646133425738</v>
-      </c>
-      <c r="L14">
-        <v>0.25664987584819721</v>
-      </c>
-      <c r="M14">
-        <v>0.1422770039351523</v>
+      <c r="K14" s="2">
+        <v>0.51358716847719343</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.31760392349326938</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.16873497866890061</v>
       </c>
       <c r="N14" t="s">
         <v>12</v>
@@ -1186,17 +1179,17 @@
       <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="K15">
-        <v>0.38359304609890732</v>
-      </c>
-      <c r="L15">
-        <v>0.34521683085463117</v>
-      </c>
-      <c r="M15">
-        <v>0.27118351180950778</v>
+      <c r="K15" s="2">
+        <v>0.31332863269916289</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.37126474940782278</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.31539934792739582</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1230,14 +1223,14 @@
       <c r="J16" t="s">
         <v>24</v>
       </c>
-      <c r="K16">
-        <v>0.63764135508100617</v>
-      </c>
-      <c r="L16">
-        <v>0.26600485515299688</v>
-      </c>
-      <c r="M16">
-        <v>9.6232957975606839E-2</v>
+      <c r="K16" s="2">
+        <v>0.60047206985800472</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.28980710485920907</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.1095777672858414</v>
       </c>
       <c r="N16" t="s">
         <v>17</v>
@@ -1274,14 +1267,14 @@
       <c r="J17" t="s">
         <v>28</v>
       </c>
-      <c r="K17">
-        <v>0.57730392764993343</v>
-      </c>
-      <c r="L17">
-        <v>0.25536898956328891</v>
-      </c>
-      <c r="M17">
-        <v>0.16711969813477409</v>
+      <c r="K17" s="2">
+        <v>0.52123599439072765</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.28948442856557333</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.1890837593888994</v>
       </c>
       <c r="N17" t="s">
         <v>12</v>
@@ -1318,14 +1311,14 @@
       <c r="J18" t="s">
         <v>32</v>
       </c>
-      <c r="K18">
-        <v>0.54973499947930182</v>
-      </c>
-      <c r="L18">
-        <v>0.2093126047801441</v>
-      </c>
-      <c r="M18">
-        <v>0.23938075676997669</v>
+      <c r="K18" s="2">
+        <v>0.58737722824588645</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.21944358417875001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.1908901443084087</v>
       </c>
       <c r="N18" t="s">
         <v>12</v>
@@ -1362,14 +1355,14 @@
       <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="K19">
-        <v>0.1891126093573039</v>
-      </c>
-      <c r="L19">
-        <v>0.24709099569579801</v>
-      </c>
-      <c r="M19">
-        <v>0.56350608755056886</v>
+      <c r="K19" s="2">
+        <v>0.12696743023470269</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.2440422886037763</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.62830558130267433</v>
       </c>
       <c r="N19" t="s">
         <v>17</v>
@@ -1406,14 +1399,14 @@
       <c r="J20" t="s">
         <v>26</v>
       </c>
-      <c r="K20">
-        <v>0.57083937084939185</v>
-      </c>
-      <c r="L20">
-        <v>0.25919079733062822</v>
-      </c>
-      <c r="M20">
-        <v>0.16978674658844009</v>
+      <c r="K20" s="2">
+        <v>0.5694359807353061</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.27726336473684321</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.15303143311229711</v>
       </c>
       <c r="N20" t="s">
         <v>17</v>
@@ -1450,14 +1443,14 @@
       <c r="J21" t="s">
         <v>36</v>
       </c>
-      <c r="K21">
-        <v>0.75032331042642908</v>
-      </c>
-      <c r="L21">
-        <v>0.1710048446417084</v>
-      </c>
-      <c r="M21">
-        <v>7.6918959903542805E-2</v>
+      <c r="K21" s="2">
+        <v>0.68753454933381641</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.22352295176725889</v>
+      </c>
+      <c r="M21" s="2">
+        <v>8.8061809006141814E-2</v>
       </c>
       <c r="N21" t="s">
         <v>12</v>
@@ -1465,11 +1458,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N21">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$N2="acerto"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$N2="fracasso"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
